--- a/src/main/resources/reports/common.xlsx
+++ b/src/main/resources/reports/common.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="240">
   <si>
     <t xml:space="preserve">$CUSTOMER$</t>
   </si>
@@ -175,10 +175,10 @@
     <t xml:space="preserve">$TOTAL_PF_IDLE$</t>
   </si>
   <si>
-    <t xml:space="preserve">Виброскорость Полевая сторона PG31, мм/с</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Виброскорость Рабочая сторона PG32, мм/с</t>
+    <t xml:space="preserve">Вибро Полевая сторона, мм/с</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Вибро Рабочая сторона, мм/с</t>
   </si>
   <si>
     <t xml:space="preserve">t датчик BK1, ℃</t>
@@ -187,15 +187,9 @@
     <t xml:space="preserve">t датчик BK2, ℃</t>
   </si>
   <si>
-    <t xml:space="preserve">Ось Y</t>
-  </si>
-  <si>
     <t xml:space="preserve">Ось X</t>
   </si>
   <si>
-    <t xml:space="preserve">Ось Z</t>
-  </si>
-  <si>
     <t xml:space="preserve">$RPM_IDLE$</t>
   </si>
   <si>
@@ -205,22 +199,10 @@
     <t xml:space="preserve">$TEMP_OI_IDLE$</t>
   </si>
   <si>
-    <t xml:space="preserve">$Y_31_IDLE$</t>
-  </si>
-  <si>
     <t xml:space="preserve">$X_31_IDLE$</t>
   </si>
   <si>
-    <t xml:space="preserve">$Z_31_IDLE$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$Y_32_IDLE$</t>
-  </si>
-  <si>
     <t xml:space="preserve">$X_32_IDLE$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$Z_32_IDLE$</t>
   </si>
   <si>
     <t xml:space="preserve">Результат</t>
@@ -507,7 +489,7 @@
     <t xml:space="preserve">$RESULT_КZ$</t>
   </si>
   <si>
-    <t xml:space="preserve">Испытание на нагрев</t>
+    <t xml:space="preserve">Испытание под нагрузкой</t>
   </si>
   <si>
     <t xml:space="preserve">$L1_U_LOAD$</t>
@@ -537,80 +519,33 @@
     <t xml:space="preserve">$TEMP_TI_LOAD$</t>
   </si>
   <si>
+    <t xml:space="preserve">Виброскорость Полевая сторона PG31, мм/с</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Виброскорость Рабочая сторона PG32, мм/с</t>
+  </si>
+  <si>
     <t xml:space="preserve">$TOTAL_P1_LOAD$</t>
   </si>
   <si>
     <t xml:space="preserve">$TOTAL_PF_LOAD$</t>
   </si>
   <si>
-    <t xml:space="preserve">$Y_31_LOAD$</t>
-  </si>
-  <si>
     <t xml:space="preserve">$X_31_LOAD$</t>
   </si>
   <si>
-    <t xml:space="preserve">$Z_31_LOAD$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$Y_32_LOAD$</t>
-  </si>
-  <si>
     <t xml:space="preserve">$X_32_LOAD$</t>
   </si>
   <si>
-    <t xml:space="preserve">$Z_32_LOAD$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">s, %</t>
-  </si>
-  <si>
     <t xml:space="preserve">P2, кВт</t>
   </si>
   <si>
-    <t xml:space="preserve">М, Нм</t>
-  </si>
-  <si>
     <t xml:space="preserve">$RPM_LOAD$</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">$SK_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">LOAD</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">$</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">$TOTAL_P2_LOAD$</t>
   </si>
   <si>
-    <t xml:space="preserve">$EFFICIENCY_LOAD$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$TOTAL_P_LOAD$</t>
-  </si>
-  <si>
     <t xml:space="preserve">$RESULT_LOAD$</t>
   </si>
   <si>
@@ -707,329 +642,112 @@
     <t xml:space="preserve">$RESULT_VARY_U_F$</t>
   </si>
   <si>
-    <t xml:space="preserve">Испытание перегрузки по току</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$L1_U_OVER_I$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$L2_U_OVER_I$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$L3_U_OVER_I$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$L1_I_OVER_I$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$L2_I_OVER_I$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$L3_I_OVER_I$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$FREQ_OVER_I$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$TOTAL_P_OVER_I$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$TOTAL_PF_OVER_I$</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">$RPM_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">OVER_I</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">$</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">$TORQUE_OVER_I$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$RESULT_OVER_I$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Испытание перегрузки по моменту</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$L1_U_OVER_M$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$L2_U_OVER_M$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$L3_U_OVER_M$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$L1_I_OVER_M$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$L2_I_OVER_M$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$L3_I_OVER_M$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$FREQ_OVER_M$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$TOTAL_P_OVER_M$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$TOTAL_PF_OVER_M$</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">$RPM_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">OVER_M</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">$</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">$TORQUE_OVER_M$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$RESULT_OVER_M$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Определение минимального вращающего момента в процессе пуска</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$L1_U_MIN_M$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$L2_U_MIN_M$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$L3_U_MIN_M$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$L1_I_MIN_M$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$L2_I_MIN_M$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$L3_I_MIN_M$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$FREQ_MIN_M$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$TOTAL_P_MIN_M$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$TOTAL_PF_MIN_M$</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">$RPM_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">MIN_M</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">$</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">$TORQUE_MIN_M$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$RESULT_MIN_M$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Определение максимального вращающего момента</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$L1_U_MAX_M$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$L2_U_MAX_M$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$L3_U_MAX_M$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$L1_I_MAX_M$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$L2_I_MAX_M$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$L3_I_MAX_M$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$FREQ_MAX_M$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$TOTAL_P_MAX_M$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$TOTAL_PF_MAX_M$</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">$RPM_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">MAX_M</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">$</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">$TORQUE_MAX_M$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$RESULT_MAX_M$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Определение начального пускового вращающего момента / тока</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$L1_U_START_M_I$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$L2_U_START_M_I$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$L3_U_START_M_I$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$L1_I_START_M_I$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$L2_I_START_M_I$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$L3_I_START_M_I$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$FREQ_START_M_I$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$TOTAL_P_START_M_I$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$TOTAL_PF_START_M_I$</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">$RPM_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="204"/>
-      </rPr>
-      <t xml:space="preserve">START_M_I</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Cambria"/>
-        <family val="1"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">$</t>
-    </r>
-  </si>
-  <si>
-    <t xml:space="preserve">$TORQUE_START_M_I$</t>
-  </si>
-  <si>
-    <t xml:space="preserve">$RESULT_START_M_I$</t>
+    <t xml:space="preserve">Обкатка на ХХ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$L1_U_RUNNING$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$L2_U_RUNNING$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$L3_U_RUNNING$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$L1_I_RUNNING$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$L2_I_RUNNING$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$L3_I_RUNNING$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$F_RUNNING$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$TOTAL_P_RUNNING$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$TOTAL_PF_RUNNING$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$RPM_RUNNING$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$TEMP_AMB_RUNNING$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$TEMP_OI_RUNNING$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$RESULT_RUNNING$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Определение коэффициента трансформации</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$L1_U_KTR$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$L2_U_KTR$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$L3_U_KTR$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$L1_I_KTR$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$L2_I_KTR$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$L3_I_KTR$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$F_KTR$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$TOTAL_P_KTR$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$TOTAL_PF_KTR$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uab 2, В</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ubc 2, В</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uca 2, В</t>
+  </si>
+  <si>
+    <t xml:space="preserve">КТР</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$L1_U_KTR_2$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$L2_U_KTR_2$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$L3_U_KTR_2$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$KTR$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$RPM_KTR$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$TEMP_AMB_KTR$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$TEMP_OI_KTR$</t>
+  </si>
+  <si>
+    <t xml:space="preserve">$RESULT_KTR$</t>
   </si>
   <si>
     <t xml:space="preserve">Рекомендации:</t>
@@ -1135,6 +853,12 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
       <b val="true"/>
       <sz val="12"/>
       <name val="Times New Roman"/>
@@ -1152,12 +876,6 @@
       <name val="Cambria"/>
       <family val="1"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Cambria"/>
-      <family val="1"/>
-      <charset val="204"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1180,7 +898,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -1244,13 +962,6 @@
       <bottom style="thin"/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right style="hair"/>
-      <top style="hair"/>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1277,244 +988,236 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="58">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="3" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1591,14 +1294,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="true"/>
   </sheetPr>
   <dimension ref="A1:AMJ191"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A79" colorId="64" zoomScale="120" zoomScaleNormal="55" zoomScalePageLayoutView="120" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B174" activeCellId="0" sqref="B174"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="pageBreakPreview" topLeftCell="A115" colorId="64" zoomScale="80" zoomScaleNormal="55" zoomScalePageLayoutView="80" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J167" activeCellId="0" sqref="J167"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1607,8 +1310,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="15.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="3" style="2" width="15.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="2" width="3.3"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="916" min="13" style="2" width="11.86"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="917" style="1" width="11.86"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="916" min="13" style="2" width="11.85"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="917" style="1" width="11.85"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2392,56 +2095,40 @@
     </row>
     <row r="27" s="22" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A27" s="19"/>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="19"/>
+      <c r="C27" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C27" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" s="18" t="s">
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F27" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G27" s="18" t="s">
-        <v>57</v>
-      </c>
+      <c r="G27" s="32"/>
       <c r="H27" s="32"/>
       <c r="I27" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="J27" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="K27" s="18" t="s">
         <v>58</v>
-      </c>
-      <c r="J27" s="18" t="s">
-        <v>59</v>
-      </c>
-      <c r="K27" s="18" t="s">
-        <v>60</v>
       </c>
       <c r="L27" s="28"/>
     </row>
     <row r="28" s="22" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A28" s="19"/>
-      <c r="B28" s="18" t="s">
-        <v>61</v>
-      </c>
+      <c r="B28" s="19"/>
       <c r="C28" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>64</v>
-      </c>
+        <v>59</v>
+      </c>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
       <c r="F28" s="18" t="s">
-        <v>65</v>
-      </c>
-      <c r="G28" s="18" t="s">
-        <v>66</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G28" s="32"/>
       <c r="H28" s="32"/>
       <c r="I28" s="18"/>
       <c r="J28" s="18"/>
@@ -2471,11 +2158,11 @@
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
       <c r="H30" s="36" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I30" s="36"/>
       <c r="J30" s="36" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="K30" s="36"/>
       <c r="L30" s="37"/>
@@ -2632,7 +2319,7 @@
     </row>
     <row r="34" s="39" customFormat="true" ht="32.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A34" s="31" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B34" s="31"/>
       <c r="C34" s="31"/>
@@ -2880,24 +2567,24 @@
       <c r="A36" s="19"/>
       <c r="B36" s="18"/>
       <c r="C36" s="18" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D36" s="18"/>
       <c r="E36" s="18" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F36" s="18"/>
       <c r="G36" s="18" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="H36" s="18"/>
       <c r="I36" s="18" t="s">
-        <v>73</v>
-      </c>
-      <c r="J36" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="J36" s="41" t="s">
         <v>53</v>
       </c>
-      <c r="K36" s="33" t="s">
+      <c r="K36" s="41" t="s">
         <v>54</v>
       </c>
       <c r="L36" s="28"/>
@@ -2905,50 +2592,50 @@
     <row r="37" s="22" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A37" s="19"/>
       <c r="B37" s="18" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="D37" s="18"/>
       <c r="E37" s="18" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="F37" s="18"/>
       <c r="G37" s="18" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="H37" s="18"/>
       <c r="I37" s="18" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="J37" s="18" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="K37" s="18" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="L37" s="28"/>
     </row>
     <row r="38" s="22" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A38" s="19"/>
       <c r="B38" s="18" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D38" s="18"/>
       <c r="E38" s="18" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="F38" s="18"/>
       <c r="G38" s="18" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="H38" s="18"/>
       <c r="I38" s="18" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="J38" s="18"/>
       <c r="K38" s="18"/>
@@ -2964,8 +2651,8 @@
       <c r="G39" s="34"/>
       <c r="H39" s="34"/>
       <c r="I39" s="34"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="42"/>
       <c r="L39" s="32"/>
     </row>
     <row r="40" s="22" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -2977,11 +2664,11 @@
       <c r="F40" s="19"/>
       <c r="G40" s="19"/>
       <c r="H40" s="36" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I40" s="36"/>
       <c r="J40" s="36" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="K40" s="36"/>
       <c r="L40" s="37"/>
@@ -3138,7 +2825,7 @@
     </row>
     <row r="44" s="22" customFormat="true" ht="32.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A44" s="31" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B44" s="31"/>
       <c r="C44" s="31"/>
@@ -3278,12 +2965,12 @@
       <c r="A46" s="19"/>
       <c r="B46" s="18"/>
       <c r="C46" s="18" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D46" s="18"/>
       <c r="E46" s="18"/>
       <c r="F46" s="18" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="G46" s="18"/>
       <c r="H46" s="18"/>
@@ -3297,20 +2984,20 @@
     <row r="47" s="22" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A47" s="19"/>
       <c r="B47" s="18" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="D47" s="18"/>
       <c r="E47" s="18"/>
       <c r="F47" s="18" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="G47" s="18"/>
       <c r="H47" s="18"/>
       <c r="I47" s="18" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="J47" s="19"/>
       <c r="K47" s="19"/>
@@ -3319,15 +3006,15 @@
     <row r="48" s="22" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A48" s="19"/>
       <c r="B48" s="18" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="D48" s="18"/>
       <c r="E48" s="18"/>
       <c r="F48" s="18" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G48" s="18"/>
       <c r="H48" s="18"/>
@@ -3340,14 +3027,14 @@
       <c r="A49" s="19"/>
       <c r="B49" s="19"/>
       <c r="C49" s="19"/>
-      <c r="D49" s="42"/>
-      <c r="E49" s="42"/>
-      <c r="F49" s="42"/>
-      <c r="G49" s="42"/>
-      <c r="H49" s="42"/>
-      <c r="I49" s="42"/>
-      <c r="J49" s="41"/>
-      <c r="K49" s="41"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="43"/>
+      <c r="F49" s="43"/>
+      <c r="G49" s="43"/>
+      <c r="H49" s="43"/>
+      <c r="I49" s="43"/>
+      <c r="J49" s="42"/>
+      <c r="K49" s="42"/>
       <c r="L49" s="32"/>
     </row>
     <row r="50" s="22" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -3359,11 +3046,11 @@
       <c r="F50" s="19"/>
       <c r="G50" s="19"/>
       <c r="H50" s="36" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I50" s="36"/>
       <c r="J50" s="36" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K50" s="36"/>
       <c r="L50" s="37"/>
@@ -3614,16 +3301,18 @@
     </row>
     <row r="53" s="25" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A53" s="30"/>
-      <c r="B53" s="30"/>
-      <c r="C53" s="30"/>
-      <c r="D53" s="30"/>
-      <c r="E53" s="30"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="30"/>
-      <c r="I53" s="30"/>
-      <c r="J53" s="30"/>
-      <c r="K53" s="30"/>
+      <c r="B53" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
+      <c r="E53" s="31"/>
+      <c r="F53" s="31"/>
+      <c r="G53" s="31"/>
+      <c r="H53" s="31"/>
+      <c r="I53" s="31"/>
+      <c r="J53" s="31"/>
+      <c r="K53" s="31"/>
       <c r="L53" s="30"/>
       <c r="AIG53" s="26"/>
       <c r="AIH53" s="26"/>
@@ -3735,9 +3424,7 @@
       <c r="AMJ53" s="26"/>
     </row>
     <row r="54" s="25" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A54" s="31" t="s">
-        <v>95</v>
-      </c>
+      <c r="A54" s="0"/>
       <c r="B54" s="31"/>
       <c r="C54" s="31"/>
       <c r="D54" s="31"/>
@@ -3860,16 +3547,16 @@
     </row>
     <row r="55" s="25" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A55" s="30"/>
-      <c r="B55" s="30"/>
-      <c r="C55" s="30"/>
-      <c r="D55" s="30"/>
-      <c r="E55" s="30"/>
-      <c r="F55" s="30"/>
-      <c r="G55" s="30"/>
-      <c r="H55" s="30"/>
-      <c r="I55" s="30"/>
-      <c r="J55" s="30"/>
-      <c r="K55" s="30"/>
+      <c r="B55" s="31"/>
+      <c r="C55" s="31"/>
+      <c r="D55" s="31"/>
+      <c r="E55" s="31"/>
+      <c r="F55" s="31"/>
+      <c r="G55" s="31"/>
+      <c r="H55" s="31"/>
+      <c r="I55" s="31"/>
+      <c r="J55" s="31"/>
+      <c r="K55" s="31"/>
       <c r="L55" s="30"/>
       <c r="AIG55" s="26"/>
       <c r="AIH55" s="26"/>
@@ -3984,15 +3671,15 @@
       <c r="A56" s="19"/>
       <c r="B56" s="18"/>
       <c r="C56" s="18" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D56" s="18"/>
       <c r="E56" s="18" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="F56" s="18"/>
       <c r="G56" s="18" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="H56" s="18"/>
       <c r="I56" s="19"/>
@@ -4007,44 +3694,44 @@
     <row r="57" s="22" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A57" s="19"/>
       <c r="B57" s="18" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D57" s="18"/>
       <c r="E57" s="18" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="F57" s="18"/>
       <c r="G57" s="18" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="H57" s="18"/>
       <c r="I57" s="19"/>
       <c r="J57" s="18" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="K57" s="18" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="L57" s="28"/>
     </row>
     <row r="58" s="22" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A58" s="19"/>
       <c r="B58" s="18" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D58" s="18"/>
       <c r="E58" s="18" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="F58" s="18"/>
       <c r="G58" s="18" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="H58" s="18"/>
       <c r="I58" s="19"/>
@@ -4054,19 +3741,19 @@
     </row>
     <row r="59" s="22" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A59" s="19"/>
-      <c r="B59" s="43" t="s">
-        <v>105</v>
-      </c>
-      <c r="C59" s="43" t="s">
-        <v>106</v>
-      </c>
-      <c r="D59" s="43"/>
+      <c r="B59" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="C59" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="D59" s="44"/>
       <c r="E59" s="18" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F59" s="18"/>
       <c r="G59" s="18" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="H59" s="18"/>
       <c r="I59" s="19"/>
@@ -4076,7 +3763,7 @@
     </row>
     <row r="60" s="25" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A60" s="19"/>
-      <c r="B60" s="44"/>
+      <c r="B60" s="45"/>
       <c r="C60" s="19"/>
       <c r="D60" s="19"/>
       <c r="E60" s="19"/>
@@ -4197,18 +3884,18 @@
       <c r="AMJ60" s="26"/>
     </row>
     <row r="61" s="25" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A61" s="45"/>
+      <c r="A61" s="46"/>
       <c r="B61" s="26"/>
-      <c r="C61" s="45"/>
-      <c r="D61" s="45"/>
-      <c r="E61" s="45"/>
-      <c r="F61" s="45"/>
-      <c r="G61" s="45"/>
-      <c r="H61" s="45"/>
-      <c r="I61" s="45"/>
-      <c r="J61" s="45"/>
-      <c r="K61" s="45"/>
-      <c r="L61" s="45"/>
+      <c r="C61" s="46"/>
+      <c r="D61" s="46"/>
+      <c r="E61" s="46"/>
+      <c r="F61" s="46"/>
+      <c r="G61" s="46"/>
+      <c r="H61" s="46"/>
+      <c r="I61" s="46"/>
+      <c r="J61" s="46"/>
+      <c r="K61" s="46"/>
+      <c r="L61" s="46"/>
       <c r="AIG61" s="26"/>
       <c r="AIH61" s="26"/>
       <c r="AII61" s="26"/>
@@ -4320,7 +4007,7 @@
     </row>
     <row r="62" s="25" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A62" s="19"/>
-      <c r="B62" s="44"/>
+      <c r="B62" s="45"/>
       <c r="C62" s="19"/>
       <c r="D62" s="19"/>
       <c r="E62" s="19"/>
@@ -4442,7 +4129,7 @@
     </row>
     <row r="63" s="25" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A63" s="23" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B63" s="23"/>
       <c r="C63" s="23"/>
@@ -4566,7 +4253,7 @@
     </row>
     <row r="64" s="25" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A64" s="19"/>
-      <c r="B64" s="44"/>
+      <c r="B64" s="45"/>
       <c r="C64" s="19"/>
       <c r="D64" s="19"/>
       <c r="E64" s="19"/>
@@ -4715,27 +4402,27 @@
     <row r="66" s="22" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A66" s="19"/>
       <c r="B66" s="33" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D66" s="18" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E66" s="18" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="F66" s="18" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="G66" s="18"/>
       <c r="H66" s="18" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="I66" s="18"/>
       <c r="J66" s="18" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="K66" s="18"/>
       <c r="L66" s="28"/>
@@ -4743,27 +4430,27 @@
     <row r="67" s="22" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A67" s="19"/>
       <c r="B67" s="33" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="D67" s="18" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="E67" s="18" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="F67" s="18" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="G67" s="18"/>
       <c r="H67" s="18" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="I67" s="18"/>
       <c r="J67" s="18" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="K67" s="18"/>
       <c r="L67" s="28"/>
@@ -4771,27 +4458,27 @@
     <row r="68" s="22" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A68" s="19"/>
       <c r="B68" s="33" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="D68" s="18" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="F68" s="18" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="G68" s="18"/>
       <c r="H68" s="18" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="I68" s="18"/>
       <c r="J68" s="18" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="K68" s="18"/>
       <c r="L68" s="28"/>
@@ -4806,8 +4493,8 @@
       <c r="G69" s="32"/>
       <c r="H69" s="32"/>
       <c r="I69" s="32"/>
-      <c r="J69" s="46"/>
-      <c r="K69" s="46"/>
+      <c r="J69" s="47"/>
+      <c r="K69" s="47"/>
       <c r="L69" s="28"/>
     </row>
     <row r="70" s="22" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4815,17 +4502,17 @@
       <c r="B70" s="30"/>
       <c r="C70" s="30"/>
       <c r="D70" s="30"/>
-      <c r="E70" s="47"/>
+      <c r="E70" s="48"/>
       <c r="F70" s="18" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G70" s="18"/>
       <c r="H70" s="18" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="I70" s="18"/>
       <c r="J70" s="18" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="K70" s="18"/>
       <c r="L70" s="28"/>
@@ -4836,18 +4523,18 @@
       <c r="C71" s="30"/>
       <c r="D71" s="30"/>
       <c r="E71" s="33" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="F71" s="18" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="G71" s="18"/>
       <c r="H71" s="18" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="I71" s="18"/>
       <c r="J71" s="18" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="K71" s="18"/>
       <c r="L71" s="28"/>
@@ -4862,8 +4549,8 @@
       <c r="G72" s="34"/>
       <c r="H72" s="34"/>
       <c r="I72" s="34"/>
-      <c r="J72" s="48"/>
-      <c r="K72" s="48"/>
+      <c r="J72" s="49"/>
+      <c r="K72" s="49"/>
       <c r="L72" s="35"/>
     </row>
     <row r="73" s="22" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -4875,11 +4562,11 @@
       <c r="F73" s="30"/>
       <c r="G73" s="30"/>
       <c r="H73" s="36" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I73" s="36"/>
       <c r="J73" s="36" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="K73" s="36"/>
       <c r="L73" s="37"/>
@@ -5007,17 +4694,17 @@
       <c r="AMJ74" s="26"/>
     </row>
     <row r="75" s="25" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="45"/>
+      <c r="A75" s="46"/>
       <c r="B75" s="26"/>
-      <c r="C75" s="49"/>
-      <c r="D75" s="49"/>
-      <c r="E75" s="49"/>
-      <c r="F75" s="49"/>
-      <c r="G75" s="49"/>
-      <c r="H75" s="49"/>
-      <c r="I75" s="49"/>
-      <c r="J75" s="49"/>
-      <c r="K75" s="49"/>
+      <c r="C75" s="50"/>
+      <c r="D75" s="50"/>
+      <c r="E75" s="50"/>
+      <c r="F75" s="50"/>
+      <c r="G75" s="50"/>
+      <c r="H75" s="50"/>
+      <c r="I75" s="50"/>
+      <c r="J75" s="50"/>
+      <c r="K75" s="50"/>
       <c r="L75" s="26"/>
       <c r="AIG75" s="26"/>
       <c r="AIH75" s="26"/>
@@ -5130,17 +4817,17 @@
     </row>
     <row r="76" s="25" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A76" s="19"/>
-      <c r="B76" s="44"/>
-      <c r="C76" s="48"/>
-      <c r="D76" s="44"/>
-      <c r="E76" s="44"/>
-      <c r="F76" s="44"/>
-      <c r="G76" s="44"/>
-      <c r="H76" s="44"/>
-      <c r="I76" s="44"/>
-      <c r="J76" s="44"/>
-      <c r="K76" s="44"/>
-      <c r="L76" s="44"/>
+      <c r="B76" s="45"/>
+      <c r="C76" s="49"/>
+      <c r="D76" s="45"/>
+      <c r="E76" s="45"/>
+      <c r="F76" s="45"/>
+      <c r="G76" s="45"/>
+      <c r="H76" s="45"/>
+      <c r="I76" s="45"/>
+      <c r="J76" s="45"/>
+      <c r="K76" s="45"/>
+      <c r="L76" s="45"/>
       <c r="AIG76" s="26"/>
       <c r="AIH76" s="26"/>
       <c r="AII76" s="26"/>
@@ -5252,7 +4939,7 @@
     </row>
     <row r="77" s="25" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A77" s="23" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="B77" s="23"/>
       <c r="C77" s="23"/>
@@ -5264,7 +4951,7 @@
       <c r="I77" s="23"/>
       <c r="J77" s="23"/>
       <c r="K77" s="23"/>
-      <c r="L77" s="48"/>
+      <c r="L77" s="49"/>
       <c r="AIG77" s="26"/>
       <c r="AIH77" s="26"/>
       <c r="AII77" s="26"/>
@@ -5376,17 +5063,17 @@
     </row>
     <row r="78" s="25" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A78" s="19"/>
-      <c r="B78" s="44"/>
-      <c r="C78" s="48"/>
-      <c r="D78" s="44"/>
-      <c r="E78" s="44"/>
-      <c r="F78" s="44"/>
-      <c r="G78" s="44"/>
-      <c r="H78" s="44"/>
-      <c r="I78" s="44"/>
-      <c r="J78" s="44"/>
-      <c r="K78" s="44"/>
-      <c r="L78" s="44"/>
+      <c r="B78" s="45"/>
+      <c r="C78" s="49"/>
+      <c r="D78" s="45"/>
+      <c r="E78" s="45"/>
+      <c r="F78" s="45"/>
+      <c r="G78" s="45"/>
+      <c r="H78" s="45"/>
+      <c r="I78" s="45"/>
+      <c r="J78" s="45"/>
+      <c r="K78" s="45"/>
+      <c r="L78" s="45"/>
       <c r="AIG78" s="26"/>
       <c r="AIH78" s="26"/>
       <c r="AII78" s="26"/>
@@ -5526,7 +5213,7 @@
       <c r="K79" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="L79" s="48"/>
+      <c r="L79" s="49"/>
       <c r="AIG79" s="26"/>
       <c r="AIH79" s="26"/>
       <c r="AII79" s="26"/>
@@ -5639,36 +5326,36 @@
     <row r="80" s="25" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A80" s="19"/>
       <c r="B80" s="18" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C80" s="18" t="s">
+        <v>134</v>
+      </c>
+      <c r="D80" s="18" t="s">
+        <v>135</v>
+      </c>
+      <c r="E80" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="F80" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="G80" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="H80" s="18" t="s">
+        <v>139</v>
+      </c>
+      <c r="I80" s="18" t="s">
         <v>140</v>
       </c>
-      <c r="D80" s="18" t="s">
+      <c r="J80" s="33" t="s">
         <v>141</v>
       </c>
-      <c r="E80" s="18" t="s">
+      <c r="K80" s="33" t="s">
         <v>142</v>
       </c>
-      <c r="F80" s="18" t="s">
-        <v>143</v>
-      </c>
-      <c r="G80" s="18" t="s">
-        <v>144</v>
-      </c>
-      <c r="H80" s="18" t="s">
-        <v>145</v>
-      </c>
-      <c r="I80" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="J80" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="K80" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="L80" s="48"/>
+      <c r="L80" s="49"/>
       <c r="AIG80" s="26"/>
       <c r="AIH80" s="26"/>
       <c r="AII80" s="26"/>
@@ -5780,17 +5467,17 @@
     </row>
     <row r="81" s="25" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A81" s="19"/>
-      <c r="B81" s="44"/>
+      <c r="B81" s="45"/>
       <c r="C81" s="34"/>
-      <c r="D81" s="48"/>
-      <c r="E81" s="48"/>
-      <c r="F81" s="48"/>
-      <c r="G81" s="48"/>
-      <c r="H81" s="48"/>
+      <c r="D81" s="49"/>
+      <c r="E81" s="49"/>
+      <c r="F81" s="49"/>
+      <c r="G81" s="49"/>
+      <c r="H81" s="49"/>
       <c r="I81" s="34"/>
-      <c r="J81" s="48"/>
-      <c r="K81" s="48"/>
-      <c r="L81" s="48"/>
+      <c r="J81" s="49"/>
+      <c r="K81" s="49"/>
+      <c r="L81" s="49"/>
       <c r="AIG81" s="26"/>
       <c r="AIH81" s="26"/>
       <c r="AII81" s="26"/>
@@ -5914,7 +5601,7 @@
         <v>40</v>
       </c>
       <c r="K82" s="18" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="L82" s="28"/>
     </row>
@@ -5929,10 +5616,10 @@
       <c r="H83" s="34"/>
       <c r="I83" s="34"/>
       <c r="J83" s="18" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="K83" s="18" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="L83" s="28"/>
     </row>
@@ -5959,28 +5646,28 @@
       <c r="F85" s="30"/>
       <c r="G85" s="30"/>
       <c r="H85" s="36" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I85" s="36"/>
-      <c r="J85" s="50" t="s">
-        <v>152</v>
-      </c>
-      <c r="K85" s="50"/>
+      <c r="J85" s="51" t="s">
+        <v>146</v>
+      </c>
+      <c r="K85" s="51"/>
       <c r="L85" s="37"/>
     </row>
     <row r="86" s="25" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A86" s="19"/>
-      <c r="B86" s="44"/>
-      <c r="C86" s="48"/>
-      <c r="D86" s="48"/>
-      <c r="E86" s="48"/>
-      <c r="F86" s="48"/>
-      <c r="G86" s="48"/>
-      <c r="H86" s="48"/>
-      <c r="I86" s="48"/>
-      <c r="J86" s="48"/>
-      <c r="K86" s="48"/>
-      <c r="L86" s="48"/>
+      <c r="B86" s="45"/>
+      <c r="C86" s="49"/>
+      <c r="D86" s="49"/>
+      <c r="E86" s="49"/>
+      <c r="F86" s="49"/>
+      <c r="G86" s="49"/>
+      <c r="H86" s="49"/>
+      <c r="I86" s="49"/>
+      <c r="J86" s="49"/>
+      <c r="K86" s="49"/>
+      <c r="L86" s="49"/>
       <c r="AIG86" s="26"/>
       <c r="AIH86" s="26"/>
       <c r="AII86" s="26"/>
@@ -6091,18 +5778,18 @@
       <c r="AMJ86" s="26"/>
     </row>
     <row r="87" s="25" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A87" s="45"/>
+      <c r="A87" s="46"/>
       <c r="B87" s="26"/>
-      <c r="C87" s="49"/>
-      <c r="D87" s="49"/>
-      <c r="E87" s="49"/>
-      <c r="F87" s="49"/>
-      <c r="G87" s="49"/>
-      <c r="H87" s="49"/>
-      <c r="I87" s="49"/>
-      <c r="J87" s="49"/>
-      <c r="K87" s="49"/>
-      <c r="L87" s="49"/>
+      <c r="C87" s="50"/>
+      <c r="D87" s="50"/>
+      <c r="E87" s="50"/>
+      <c r="F87" s="50"/>
+      <c r="G87" s="50"/>
+      <c r="H87" s="50"/>
+      <c r="I87" s="50"/>
+      <c r="J87" s="50"/>
+      <c r="K87" s="50"/>
+      <c r="L87" s="50"/>
       <c r="AIG87" s="26"/>
       <c r="AIH87" s="26"/>
       <c r="AII87" s="26"/>
@@ -6336,7 +6023,7 @@
     </row>
     <row r="89" s="25" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A89" s="23" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="B89" s="23"/>
       <c r="C89" s="23"/>
@@ -6460,7 +6147,7 @@
     </row>
     <row r="90" s="25" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A90" s="19"/>
-      <c r="B90" s="44"/>
+      <c r="B90" s="45"/>
       <c r="C90" s="30"/>
       <c r="D90" s="30"/>
       <c r="E90" s="30"/>
@@ -6470,7 +6157,7 @@
       <c r="I90" s="30"/>
       <c r="J90" s="30"/>
       <c r="K90" s="30"/>
-      <c r="L90" s="51"/>
+      <c r="L90" s="52"/>
       <c r="AIG90" s="26"/>
       <c r="AIH90" s="26"/>
       <c r="AII90" s="26"/>
@@ -6615,34 +6302,34 @@
     <row r="92" s="22" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A92" s="19"/>
       <c r="B92" s="18" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C92" s="18" t="s">
+        <v>148</v>
+      </c>
+      <c r="D92" s="18" t="s">
+        <v>149</v>
+      </c>
+      <c r="E92" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="F92" s="18" t="s">
+        <v>151</v>
+      </c>
+      <c r="G92" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="H92" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="I92" s="18" t="s">
         <v>154</v>
       </c>
-      <c r="D92" s="18" t="s">
+      <c r="J92" s="33" t="s">
         <v>155</v>
       </c>
-      <c r="E92" s="18" t="s">
+      <c r="K92" s="33" t="s">
         <v>156</v>
-      </c>
-      <c r="F92" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="G92" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="H92" s="18" t="s">
-        <v>159</v>
-      </c>
-      <c r="I92" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="J92" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="K92" s="33" t="s">
-        <v>162</v>
       </c>
       <c r="L92" s="28"/>
     </row>
@@ -6663,12 +6350,12 @@
     <row r="94" s="22" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A94" s="19"/>
       <c r="B94" s="18" t="s">
-        <v>51</v>
+        <v>157</v>
       </c>
       <c r="C94" s="18"/>
       <c r="D94" s="18"/>
       <c r="E94" s="18" t="s">
-        <v>52</v>
+        <v>158</v>
       </c>
       <c r="F94" s="18"/>
       <c r="G94" s="18"/>
@@ -6678,64 +6365,48 @@
         <v>40</v>
       </c>
       <c r="K94" s="18" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="L94" s="28"/>
     </row>
     <row r="95" s="22" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A95" s="19"/>
-      <c r="B95" s="18" t="s">
+      <c r="B95" s="30"/>
+      <c r="C95" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="C95" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="D95" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="E95" s="18" t="s">
+      <c r="D95" s="30"/>
+      <c r="E95" s="30"/>
+      <c r="F95" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="F95" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="G95" s="18" t="s">
-        <v>57</v>
-      </c>
+      <c r="G95" s="30"/>
       <c r="H95" s="30"/>
       <c r="I95" s="30"/>
       <c r="J95" s="18" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="K95" s="18" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="L95" s="28"/>
     </row>
     <row r="96" s="22" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A96" s="19"/>
-      <c r="B96" s="18" t="s">
-        <v>165</v>
-      </c>
+      <c r="B96" s="30"/>
       <c r="C96" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="D96" s="18" t="s">
-        <v>167</v>
-      </c>
-      <c r="E96" s="18" t="s">
-        <v>168</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="D96" s="30"/>
+      <c r="E96" s="30"/>
       <c r="F96" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="G96" s="18" t="s">
-        <v>170</v>
-      </c>
+        <v>162</v>
+      </c>
+      <c r="G96" s="30"/>
       <c r="H96" s="30"/>
       <c r="I96" s="30"/>
-      <c r="J96" s="27"/>
-      <c r="K96" s="27"/>
+      <c r="J96" s="30"/>
+      <c r="K96" s="30"/>
       <c r="L96" s="28"/>
     </row>
     <row r="97" s="22" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6754,61 +6425,49 @@
     </row>
     <row r="98" s="22" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A98" s="19"/>
-      <c r="B98" s="18" t="s">
+      <c r="B98" s="30"/>
+      <c r="C98" s="30"/>
+      <c r="D98" s="18" t="s">
         <v>22</v>
-      </c>
-      <c r="C98" s="18"/>
-      <c r="D98" s="18" t="s">
-        <v>171</v>
       </c>
       <c r="E98" s="18"/>
       <c r="F98" s="18" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="G98" s="18"/>
-      <c r="H98" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="I98" s="18"/>
-      <c r="J98" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="K98" s="18"/>
+      <c r="H98" s="30"/>
+      <c r="I98" s="30"/>
+      <c r="J98" s="30"/>
+      <c r="K98" s="30"/>
       <c r="L98" s="28"/>
     </row>
     <row r="99" s="22" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A99" s="19"/>
-      <c r="B99" s="18" t="s">
-        <v>174</v>
-      </c>
-      <c r="C99" s="18"/>
-      <c r="D99" s="52" t="s">
-        <v>175</v>
-      </c>
-      <c r="E99" s="52"/>
+      <c r="B99" s="30"/>
+      <c r="C99" s="30"/>
+      <c r="D99" s="18" t="s">
+        <v>164</v>
+      </c>
+      <c r="E99" s="18"/>
       <c r="F99" s="18" t="s">
-        <v>176</v>
+        <v>165</v>
       </c>
       <c r="G99" s="18"/>
-      <c r="H99" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="I99" s="18"/>
-      <c r="J99" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="K99" s="18"/>
+      <c r="H99" s="30"/>
+      <c r="I99" s="30"/>
+      <c r="J99" s="30"/>
+      <c r="K99" s="30"/>
       <c r="L99" s="28"/>
     </row>
     <row r="100" s="22" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A100" s="19"/>
       <c r="B100" s="30"/>
       <c r="C100" s="30"/>
-      <c r="D100" s="42"/>
+      <c r="D100" s="43"/>
       <c r="E100" s="53"/>
       <c r="F100" s="27"/>
       <c r="G100" s="53"/>
-      <c r="H100" s="42"/>
+      <c r="H100" s="43"/>
       <c r="I100" s="30"/>
       <c r="J100" s="54"/>
       <c r="K100" s="54"/>
@@ -6823,11 +6482,11 @@
       <c r="F101" s="30"/>
       <c r="G101" s="30"/>
       <c r="H101" s="36" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I101" s="36"/>
       <c r="J101" s="36" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="K101" s="36"/>
       <c r="L101" s="37"/>
@@ -6955,18 +6614,18 @@
       <c r="AMJ102" s="26"/>
     </row>
     <row r="103" s="25" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A103" s="45"/>
+      <c r="A103" s="46"/>
       <c r="B103" s="26"/>
-      <c r="C103" s="49"/>
-      <c r="D103" s="49"/>
-      <c r="E103" s="49"/>
-      <c r="F103" s="49"/>
-      <c r="G103" s="49"/>
-      <c r="H103" s="49"/>
-      <c r="I103" s="49"/>
-      <c r="J103" s="49"/>
-      <c r="K103" s="49"/>
-      <c r="L103" s="49"/>
+      <c r="C103" s="50"/>
+      <c r="D103" s="50"/>
+      <c r="E103" s="50"/>
+      <c r="F103" s="50"/>
+      <c r="G103" s="50"/>
+      <c r="H103" s="50"/>
+      <c r="I103" s="50"/>
+      <c r="J103" s="50"/>
+      <c r="K103" s="50"/>
+      <c r="L103" s="50"/>
       <c r="AIG103" s="26"/>
       <c r="AIH103" s="26"/>
       <c r="AII103" s="26"/>
@@ -7200,7 +6859,7 @@
     </row>
     <row r="105" s="25" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A105" s="23" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="B105" s="23"/>
       <c r="C105" s="23"/>
@@ -7585,32 +7244,32 @@
     <row r="108" s="25" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A108" s="19"/>
       <c r="B108" s="18" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C108" s="18" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="D108" s="18" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
       <c r="E108" s="18" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="F108" s="18" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="G108" s="18" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="H108" s="18" t="s">
-        <v>186</v>
+        <v>173</v>
       </c>
       <c r="I108" s="18" t="s">
-        <v>187</v>
+        <v>174</v>
       </c>
       <c r="J108" s="30"/>
       <c r="K108" s="18" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
       <c r="L108" s="28"/>
       <c r="AIG108" s="26"/>
@@ -7853,11 +7512,11 @@
       <c r="F110" s="30"/>
       <c r="G110" s="30"/>
       <c r="H110" s="36" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I110" s="36"/>
       <c r="J110" s="36" t="s">
-        <v>189</v>
+        <v>176</v>
       </c>
       <c r="K110" s="36"/>
       <c r="L110" s="37"/>
@@ -8093,18 +7752,18 @@
       <c r="AMJ111" s="26"/>
     </row>
     <row r="112" s="25" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A112" s="45"/>
+      <c r="A112" s="46"/>
       <c r="B112" s="26"/>
-      <c r="C112" s="49"/>
-      <c r="D112" s="49"/>
-      <c r="E112" s="49"/>
-      <c r="F112" s="49"/>
-      <c r="G112" s="49"/>
-      <c r="H112" s="49"/>
-      <c r="I112" s="49"/>
-      <c r="J112" s="49"/>
-      <c r="K112" s="49"/>
-      <c r="L112" s="49"/>
+      <c r="C112" s="50"/>
+      <c r="D112" s="50"/>
+      <c r="E112" s="50"/>
+      <c r="F112" s="50"/>
+      <c r="G112" s="50"/>
+      <c r="H112" s="50"/>
+      <c r="I112" s="50"/>
+      <c r="J112" s="50"/>
+      <c r="K112" s="50"/>
+      <c r="L112" s="50"/>
       <c r="AIG112" s="26"/>
       <c r="AIH112" s="26"/>
       <c r="AII112" s="26"/>
@@ -8338,7 +7997,7 @@
     </row>
     <row r="114" s="25" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A114" s="55" t="s">
-        <v>190</v>
+        <v>177</v>
       </c>
       <c r="B114" s="55"/>
       <c r="C114" s="55"/>
@@ -8723,7 +8382,7 @@
     <row r="117" s="25" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A117" s="19"/>
       <c r="B117" s="18" t="s">
-        <v>191</v>
+        <v>178</v>
       </c>
       <c r="C117" s="18" t="s">
         <v>26</v>
@@ -8863,32 +8522,32 @@
     <row r="118" s="25" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A118" s="19"/>
       <c r="B118" s="18" t="s">
-        <v>192</v>
+        <v>179</v>
       </c>
       <c r="C118" s="18" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="D118" s="18" t="s">
-        <v>194</v>
+        <v>181</v>
       </c>
       <c r="E118" s="18" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="F118" s="18" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="G118" s="18" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="H118" s="18" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="I118" s="18" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
       <c r="J118" s="30"/>
       <c r="K118" s="18" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="L118" s="28"/>
       <c r="AIG118" s="26"/>
@@ -9003,32 +8662,32 @@
     <row r="119" s="25" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A119" s="19"/>
       <c r="B119" s="18" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="C119" s="18" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="D119" s="18" t="s">
-        <v>203</v>
+        <v>190</v>
       </c>
       <c r="E119" s="18" t="s">
-        <v>204</v>
+        <v>191</v>
       </c>
       <c r="F119" s="18" t="s">
-        <v>205</v>
+        <v>192</v>
       </c>
       <c r="G119" s="18" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="H119" s="18" t="s">
-        <v>207</v>
+        <v>194</v>
       </c>
       <c r="I119" s="18" t="s">
-        <v>208</v>
+        <v>195</v>
       </c>
       <c r="J119" s="30"/>
       <c r="K119" s="18" t="s">
-        <v>209</v>
+        <v>196</v>
       </c>
       <c r="L119" s="28"/>
       <c r="AIG119" s="26"/>
@@ -9142,7 +8801,7 @@
     </row>
     <row r="120" s="25" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A120" s="19"/>
-      <c r="B120" s="44"/>
+      <c r="B120" s="45"/>
       <c r="C120" s="30"/>
       <c r="D120" s="30"/>
       <c r="E120" s="30"/>
@@ -9271,11 +8930,11 @@
       <c r="F121" s="30"/>
       <c r="G121" s="30"/>
       <c r="H121" s="36" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="I121" s="36"/>
       <c r="J121" s="36" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="K121" s="36"/>
       <c r="L121" s="37"/>
@@ -9390,7 +9049,7 @@
     </row>
     <row r="122" s="25" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A122" s="19"/>
-      <c r="B122" s="44"/>
+      <c r="B122" s="45"/>
       <c r="C122" s="30"/>
       <c r="D122" s="30"/>
       <c r="E122" s="30"/>
@@ -9511,18 +9170,18 @@
       <c r="AMJ122" s="26"/>
     </row>
     <row r="123" s="25" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A123" s="45"/>
+      <c r="A123" s="46"/>
       <c r="B123" s="26"/>
-      <c r="C123" s="49"/>
-      <c r="D123" s="49"/>
-      <c r="E123" s="49"/>
-      <c r="F123" s="49"/>
-      <c r="G123" s="49"/>
-      <c r="H123" s="49"/>
-      <c r="I123" s="49"/>
-      <c r="J123" s="49"/>
-      <c r="K123" s="49"/>
-      <c r="L123" s="49"/>
+      <c r="C123" s="50"/>
+      <c r="D123" s="50"/>
+      <c r="E123" s="50"/>
+      <c r="F123" s="50"/>
+      <c r="G123" s="50"/>
+      <c r="H123" s="50"/>
+      <c r="I123" s="50"/>
+      <c r="J123" s="50"/>
+      <c r="K123" s="50"/>
+      <c r="L123" s="50"/>
       <c r="AIG123" s="26"/>
       <c r="AIH123" s="26"/>
       <c r="AII123" s="26"/>
@@ -9755,20 +9414,20 @@
       <c r="AMJ124" s="26"/>
     </row>
     <row r="125" s="25" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A125" s="23" t="s">
-        <v>211</v>
-      </c>
-      <c r="B125" s="23"/>
-      <c r="C125" s="23"/>
-      <c r="D125" s="23"/>
-      <c r="E125" s="23"/>
-      <c r="F125" s="23"/>
-      <c r="G125" s="23"/>
-      <c r="H125" s="23"/>
-      <c r="I125" s="23"/>
-      <c r="J125" s="23"/>
-      <c r="K125" s="23"/>
-      <c r="L125" s="23"/>
+      <c r="A125" s="31" t="s">
+        <v>198</v>
+      </c>
+      <c r="B125" s="31"/>
+      <c r="C125" s="31"/>
+      <c r="D125" s="31"/>
+      <c r="E125" s="31"/>
+      <c r="F125" s="31"/>
+      <c r="G125" s="31"/>
+      <c r="H125" s="31"/>
+      <c r="I125" s="31"/>
+      <c r="J125" s="31"/>
+      <c r="K125" s="31"/>
+      <c r="L125" s="24"/>
       <c r="AIG125" s="26"/>
       <c r="AIH125" s="26"/>
       <c r="AII125" s="26"/>
@@ -9879,9 +9538,9 @@
       <c r="AMJ125" s="26"/>
     </row>
     <row r="126" s="25" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A126" s="19"/>
-      <c r="B126" s="44"/>
-      <c r="C126" s="44"/>
+      <c r="A126" s="30"/>
+      <c r="B126" s="30"/>
+      <c r="C126" s="30"/>
       <c r="D126" s="30"/>
       <c r="E126" s="30"/>
       <c r="F126" s="30"/>
@@ -10002,25 +9661,25 @@
     </row>
     <row r="127" s="22" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A127" s="19"/>
-      <c r="B127" s="18"/>
+      <c r="B127" s="18" t="s">
+        <v>34</v>
+      </c>
       <c r="C127" s="18" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D127" s="18" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E127" s="18" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F127" s="18" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G127" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="H127" s="18" t="s">
         <v>39</v>
       </c>
+      <c r="H127" s="19"/>
       <c r="I127" s="18" t="s">
         <v>23</v>
       </c>
@@ -10028,48 +9687,46 @@
         <v>40</v>
       </c>
       <c r="K127" s="18" t="s">
-        <v>149</v>
+        <v>41</v>
       </c>
       <c r="L127" s="28"/>
     </row>
     <row r="128" s="22" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A128" s="19"/>
       <c r="B128" s="18" t="s">
-        <v>81</v>
+        <v>199</v>
       </c>
       <c r="C128" s="18" t="s">
-        <v>212</v>
+        <v>200</v>
       </c>
       <c r="D128" s="18" t="s">
-        <v>213</v>
+        <v>201</v>
       </c>
       <c r="E128" s="18" t="s">
-        <v>214</v>
+        <v>202</v>
       </c>
       <c r="F128" s="18" t="s">
-        <v>215</v>
+        <v>203</v>
       </c>
       <c r="G128" s="18" t="s">
-        <v>216</v>
-      </c>
-      <c r="H128" s="18" t="s">
-        <v>217</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="H128" s="19"/>
       <c r="I128" s="18" t="s">
-        <v>218</v>
+        <v>205</v>
       </c>
       <c r="J128" s="18" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
       <c r="K128" s="18" t="s">
-        <v>220</v>
+        <v>207</v>
       </c>
       <c r="L128" s="28"/>
     </row>
     <row r="129" s="22" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A129" s="19"/>
-      <c r="B129" s="44"/>
-      <c r="C129" s="44"/>
+      <c r="B129" s="19"/>
+      <c r="C129" s="19"/>
       <c r="D129" s="32"/>
       <c r="E129" s="32"/>
       <c r="F129" s="32"/>
@@ -10082,85 +9739,89 @@
     </row>
     <row r="130" s="22" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A130" s="19"/>
-      <c r="B130" s="44"/>
-      <c r="C130" s="44"/>
-      <c r="D130" s="18" t="s">
+      <c r="B130" s="32"/>
+      <c r="C130" s="32"/>
+      <c r="D130" s="32"/>
+      <c r="E130" s="32"/>
+      <c r="F130" s="32"/>
+      <c r="G130" s="32"/>
+      <c r="H130" s="32"/>
+      <c r="I130" s="18" t="s">
         <v>22</v>
       </c>
-      <c r="E130" s="18"/>
-      <c r="F130" s="44"/>
-      <c r="G130" s="44"/>
-      <c r="H130" s="34"/>
-      <c r="I130" s="34"/>
-      <c r="J130" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="K130" s="18"/>
+      <c r="J130" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="K130" s="33" t="s">
+        <v>54</v>
+      </c>
       <c r="L130" s="28"/>
     </row>
     <row r="131" s="22" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A131" s="19"/>
-      <c r="B131" s="44"/>
-      <c r="C131" s="44"/>
-      <c r="D131" s="52" t="s">
-        <v>221</v>
-      </c>
-      <c r="E131" s="52"/>
-      <c r="F131" s="44"/>
-      <c r="G131" s="44"/>
-      <c r="H131" s="34"/>
-      <c r="I131" s="34"/>
+      <c r="B131" s="32"/>
+      <c r="C131" s="32"/>
+      <c r="D131" s="32"/>
+      <c r="E131" s="32"/>
+      <c r="F131" s="32"/>
+      <c r="G131" s="32"/>
+      <c r="H131" s="32"/>
+      <c r="I131" s="18" t="s">
+        <v>208</v>
+      </c>
       <c r="J131" s="18" t="s">
-        <v>222</v>
-      </c>
-      <c r="K131" s="18"/>
+        <v>209</v>
+      </c>
+      <c r="K131" s="18" t="s">
+        <v>210</v>
+      </c>
       <c r="L131" s="28"/>
     </row>
     <row r="132" s="22" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A132" s="19"/>
-      <c r="B132" s="44"/>
-      <c r="C132" s="44"/>
-      <c r="D132" s="42"/>
-      <c r="E132" s="53"/>
-      <c r="F132" s="53"/>
-      <c r="G132" s="53"/>
-      <c r="H132" s="42"/>
-      <c r="I132" s="30"/>
-      <c r="J132" s="54"/>
-      <c r="K132" s="54"/>
+      <c r="B132" s="32"/>
+      <c r="C132" s="32"/>
+      <c r="D132" s="32"/>
+      <c r="E132" s="32"/>
+      <c r="F132" s="32"/>
+      <c r="G132" s="32"/>
+      <c r="H132" s="32"/>
+      <c r="I132" s="18"/>
+      <c r="J132" s="18"/>
+      <c r="K132" s="18"/>
       <c r="L132" s="28"/>
     </row>
     <row r="133" s="22" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A133" s="19"/>
-      <c r="B133" s="30"/>
-      <c r="C133" s="30"/>
-      <c r="D133" s="30"/>
-      <c r="E133" s="30"/>
-      <c r="F133" s="30"/>
-      <c r="G133" s="30"/>
-      <c r="H133" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="I133" s="36"/>
-      <c r="J133" s="36" t="s">
-        <v>223</v>
-      </c>
-      <c r="K133" s="36"/>
-      <c r="L133" s="37"/>
+      <c r="B133" s="19"/>
+      <c r="C133" s="19"/>
+      <c r="D133" s="34"/>
+      <c r="E133" s="34"/>
+      <c r="F133" s="34"/>
+      <c r="G133" s="34"/>
+      <c r="H133" s="34"/>
+      <c r="I133" s="34"/>
+      <c r="J133" s="34"/>
+      <c r="K133" s="34"/>
+      <c r="L133" s="35"/>
     </row>
     <row r="134" s="25" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A134" s="30"/>
-      <c r="B134" s="30"/>
-      <c r="C134" s="30"/>
-      <c r="D134" s="30"/>
-      <c r="E134" s="30"/>
-      <c r="F134" s="30"/>
-      <c r="G134" s="30"/>
-      <c r="H134" s="30"/>
-      <c r="I134" s="30"/>
-      <c r="J134" s="30"/>
-      <c r="K134" s="30"/>
-      <c r="L134" s="30"/>
+      <c r="A134" s="19"/>
+      <c r="B134" s="19"/>
+      <c r="C134" s="19"/>
+      <c r="D134" s="19"/>
+      <c r="E134" s="19"/>
+      <c r="F134" s="19"/>
+      <c r="G134" s="19"/>
+      <c r="H134" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="I134" s="36"/>
+      <c r="J134" s="36" t="s">
+        <v>211</v>
+      </c>
+      <c r="K134" s="36"/>
+      <c r="L134" s="37"/>
       <c r="AIG134" s="26"/>
       <c r="AIH134" s="26"/>
       <c r="AII134" s="26"/>
@@ -10271,18 +9932,18 @@
       <c r="AMJ134" s="26"/>
     </row>
     <row r="135" s="25" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A135" s="45"/>
-      <c r="B135" s="26"/>
-      <c r="C135" s="49"/>
-      <c r="D135" s="49"/>
-      <c r="E135" s="49"/>
-      <c r="F135" s="49"/>
-      <c r="G135" s="49"/>
-      <c r="H135" s="49"/>
-      <c r="I135" s="49"/>
-      <c r="J135" s="49"/>
-      <c r="K135" s="49"/>
-      <c r="L135" s="49"/>
+      <c r="A135" s="30"/>
+      <c r="B135" s="30"/>
+      <c r="C135" s="30"/>
+      <c r="D135" s="30"/>
+      <c r="E135" s="30"/>
+      <c r="F135" s="30"/>
+      <c r="G135" s="30"/>
+      <c r="H135" s="30"/>
+      <c r="I135" s="30"/>
+      <c r="J135" s="30"/>
+      <c r="K135" s="30"/>
+      <c r="L135" s="30"/>
       <c r="AIG135" s="26"/>
       <c r="AIH135" s="26"/>
       <c r="AII135" s="26"/>
@@ -10393,18 +10054,18 @@
       <c r="AMJ135" s="26"/>
     </row>
     <row r="136" s="25" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A136" s="30"/>
-      <c r="B136" s="30"/>
-      <c r="C136" s="30"/>
-      <c r="D136" s="30"/>
-      <c r="E136" s="30"/>
-      <c r="F136" s="30"/>
-      <c r="G136" s="30"/>
-      <c r="H136" s="30"/>
-      <c r="I136" s="30"/>
-      <c r="J136" s="30"/>
-      <c r="K136" s="30"/>
-      <c r="L136" s="30"/>
+      <c r="A136" s="0"/>
+      <c r="B136" s="0"/>
+      <c r="C136" s="0"/>
+      <c r="D136" s="0"/>
+      <c r="E136" s="0"/>
+      <c r="F136" s="0"/>
+      <c r="G136" s="0"/>
+      <c r="H136" s="0"/>
+      <c r="I136" s="0"/>
+      <c r="J136" s="0"/>
+      <c r="K136" s="0"/>
+      <c r="L136" s="0"/>
       <c r="AIG136" s="26"/>
       <c r="AIH136" s="26"/>
       <c r="AII136" s="26"/>
@@ -10516,19 +10177,17 @@
     </row>
     <row r="137" s="25" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A137" s="30"/>
-      <c r="B137" s="23" t="s">
-        <v>224</v>
-      </c>
-      <c r="C137" s="23"/>
-      <c r="D137" s="23"/>
-      <c r="E137" s="23"/>
-      <c r="F137" s="23"/>
-      <c r="G137" s="23"/>
-      <c r="H137" s="23"/>
-      <c r="I137" s="23"/>
-      <c r="J137" s="23"/>
-      <c r="K137" s="23"/>
-      <c r="L137" s="56"/>
+      <c r="B137" s="30"/>
+      <c r="C137" s="30"/>
+      <c r="D137" s="30"/>
+      <c r="E137" s="30"/>
+      <c r="F137" s="30"/>
+      <c r="G137" s="30"/>
+      <c r="H137" s="30"/>
+      <c r="I137" s="30"/>
+      <c r="J137" s="30"/>
+      <c r="K137" s="30"/>
+      <c r="L137" s="30"/>
       <c r="AIG137" s="26"/>
       <c r="AIH137" s="26"/>
       <c r="AII137" s="26"/>
@@ -10639,18 +10298,20 @@
       <c r="AMJ137" s="26"/>
     </row>
     <row r="138" s="25" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A138" s="30"/>
-      <c r="B138" s="30"/>
-      <c r="C138" s="30"/>
-      <c r="D138" s="30"/>
-      <c r="E138" s="30"/>
-      <c r="F138" s="30"/>
-      <c r="G138" s="30"/>
-      <c r="H138" s="30"/>
-      <c r="I138" s="30"/>
-      <c r="J138" s="30"/>
-      <c r="K138" s="30"/>
-      <c r="L138" s="30"/>
+      <c r="A138" s="31" t="s">
+        <v>212</v>
+      </c>
+      <c r="B138" s="31"/>
+      <c r="C138" s="31"/>
+      <c r="D138" s="31"/>
+      <c r="E138" s="31"/>
+      <c r="F138" s="31"/>
+      <c r="G138" s="31"/>
+      <c r="H138" s="31"/>
+      <c r="I138" s="31"/>
+      <c r="J138" s="31"/>
+      <c r="K138" s="31"/>
+      <c r="L138" s="24"/>
       <c r="AIG138" s="26"/>
       <c r="AIH138" s="26"/>
       <c r="AII138" s="26"/>
@@ -10761,166 +10422,180 @@
       <c r="AMJ138" s="26"/>
     </row>
     <row r="139" s="22" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A139" s="19"/>
-      <c r="B139" s="18"/>
-      <c r="C139" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D139" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E139" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="F139" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="G139" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="H139" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="I139" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J139" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="K139" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="L139" s="28"/>
+      <c r="A139" s="30"/>
+      <c r="B139" s="30"/>
+      <c r="C139" s="30"/>
+      <c r="D139" s="30"/>
+      <c r="E139" s="30"/>
+      <c r="F139" s="30"/>
+      <c r="G139" s="30"/>
+      <c r="H139" s="30"/>
+      <c r="I139" s="30"/>
+      <c r="J139" s="30"/>
+      <c r="K139" s="30"/>
+      <c r="L139" s="30"/>
     </row>
     <row r="140" s="22" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A140" s="19"/>
       <c r="B140" s="18" t="s">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="C140" s="18" t="s">
-        <v>225</v>
+        <v>35</v>
       </c>
       <c r="D140" s="18" t="s">
-        <v>226</v>
+        <v>36</v>
       </c>
       <c r="E140" s="18" t="s">
-        <v>227</v>
+        <v>37</v>
       </c>
       <c r="F140" s="18" t="s">
-        <v>228</v>
+        <v>38</v>
       </c>
       <c r="G140" s="18" t="s">
-        <v>229</v>
-      </c>
-      <c r="H140" s="18" t="s">
-        <v>230</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="H140" s="19"/>
       <c r="I140" s="18" t="s">
-        <v>231</v>
+        <v>23</v>
       </c>
       <c r="J140" s="18" t="s">
-        <v>232</v>
+        <v>40</v>
       </c>
       <c r="K140" s="18" t="s">
-        <v>233</v>
+        <v>41</v>
       </c>
       <c r="L140" s="28"/>
     </row>
     <row r="141" s="22" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A141" s="19"/>
-      <c r="B141" s="44"/>
-      <c r="C141" s="44"/>
-      <c r="D141" s="32"/>
-      <c r="E141" s="32"/>
-      <c r="F141" s="32"/>
-      <c r="G141" s="32"/>
-      <c r="H141" s="32"/>
-      <c r="I141" s="32"/>
-      <c r="J141" s="32"/>
-      <c r="K141" s="32"/>
+      <c r="B141" s="18" t="s">
+        <v>213</v>
+      </c>
+      <c r="C141" s="18" t="s">
+        <v>214</v>
+      </c>
+      <c r="D141" s="18" t="s">
+        <v>215</v>
+      </c>
+      <c r="E141" s="18" t="s">
+        <v>216</v>
+      </c>
+      <c r="F141" s="18" t="s">
+        <v>217</v>
+      </c>
+      <c r="G141" s="18" t="s">
+        <v>218</v>
+      </c>
+      <c r="H141" s="19"/>
+      <c r="I141" s="18" t="s">
+        <v>219</v>
+      </c>
+      <c r="J141" s="18" t="s">
+        <v>220</v>
+      </c>
+      <c r="K141" s="18" t="s">
+        <v>221</v>
+      </c>
       <c r="L141" s="28"/>
     </row>
     <row r="142" s="22" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A142" s="19"/>
-      <c r="B142" s="44"/>
-      <c r="C142" s="44"/>
-      <c r="D142" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E142" s="18"/>
-      <c r="F142" s="44"/>
-      <c r="G142" s="44"/>
-      <c r="H142" s="34"/>
-      <c r="I142" s="34"/>
-      <c r="J142" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="K142" s="18"/>
+      <c r="B142" s="19"/>
+      <c r="C142" s="19"/>
+      <c r="D142" s="32"/>
+      <c r="E142" s="32"/>
+      <c r="F142" s="32"/>
+      <c r="G142" s="32"/>
+      <c r="H142" s="32"/>
+      <c r="I142" s="32"/>
+      <c r="J142" s="32"/>
+      <c r="K142" s="32"/>
       <c r="L142" s="28"/>
     </row>
     <row r="143" s="22" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A143" s="19"/>
-      <c r="B143" s="44"/>
-      <c r="C143" s="44"/>
-      <c r="D143" s="52" t="s">
-        <v>234</v>
-      </c>
-      <c r="E143" s="52"/>
-      <c r="F143" s="44"/>
-      <c r="G143" s="44"/>
-      <c r="H143" s="34"/>
-      <c r="I143" s="34"/>
-      <c r="J143" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="K143" s="18"/>
+      <c r="B143" s="18" t="s">
+        <v>222</v>
+      </c>
+      <c r="C143" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="D143" s="18" t="s">
+        <v>224</v>
+      </c>
+      <c r="E143" s="18" t="s">
+        <v>225</v>
+      </c>
+      <c r="F143" s="32"/>
+      <c r="G143" s="32"/>
+      <c r="H143" s="32"/>
+      <c r="I143" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="J143" s="33" t="s">
+        <v>53</v>
+      </c>
+      <c r="K143" s="33" t="s">
+        <v>54</v>
+      </c>
       <c r="L143" s="28"/>
     </row>
     <row r="144" s="22" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A144" s="19"/>
-      <c r="B144" s="44"/>
-      <c r="C144" s="44"/>
-      <c r="D144" s="42"/>
-      <c r="E144" s="53"/>
-      <c r="F144" s="53"/>
-      <c r="G144" s="53"/>
-      <c r="H144" s="42"/>
-      <c r="I144" s="30"/>
-      <c r="J144" s="54"/>
-      <c r="K144" s="54"/>
+      <c r="B144" s="18" t="s">
+        <v>226</v>
+      </c>
+      <c r="C144" s="18" t="s">
+        <v>227</v>
+      </c>
+      <c r="D144" s="18" t="s">
+        <v>228</v>
+      </c>
+      <c r="E144" s="18" t="s">
+        <v>229</v>
+      </c>
+      <c r="F144" s="32"/>
+      <c r="G144" s="32"/>
+      <c r="H144" s="32"/>
+      <c r="I144" s="18" t="s">
+        <v>230</v>
+      </c>
+      <c r="J144" s="18" t="s">
+        <v>231</v>
+      </c>
+      <c r="K144" s="18" t="s">
+        <v>232</v>
+      </c>
       <c r="L144" s="28"/>
     </row>
     <row r="145" s="22" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A145" s="19"/>
-      <c r="B145" s="30"/>
-      <c r="C145" s="30"/>
-      <c r="D145" s="30"/>
-      <c r="E145" s="30"/>
-      <c r="F145" s="30"/>
-      <c r="G145" s="30"/>
-      <c r="H145" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="I145" s="36"/>
-      <c r="J145" s="36" t="s">
-        <v>236</v>
-      </c>
-      <c r="K145" s="36"/>
-      <c r="L145" s="37"/>
+      <c r="B145" s="32"/>
+      <c r="C145" s="32"/>
+      <c r="D145" s="32"/>
+      <c r="E145" s="32"/>
+      <c r="F145" s="32"/>
+      <c r="G145" s="32"/>
+      <c r="H145" s="32"/>
+      <c r="I145" s="18"/>
+      <c r="J145" s="18"/>
+      <c r="K145" s="18"/>
+      <c r="L145" s="28"/>
     </row>
     <row r="146" s="25" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A146" s="30"/>
-      <c r="B146" s="30"/>
-      <c r="C146" s="30"/>
-      <c r="D146" s="30"/>
-      <c r="E146" s="30"/>
-      <c r="F146" s="30"/>
-      <c r="G146" s="30"/>
-      <c r="H146" s="30"/>
-      <c r="I146" s="30"/>
-      <c r="J146" s="30"/>
-      <c r="K146" s="30"/>
-      <c r="L146" s="30"/>
+      <c r="A146" s="19"/>
+      <c r="B146" s="19"/>
+      <c r="C146" s="19"/>
+      <c r="D146" s="34"/>
+      <c r="E146" s="34"/>
+      <c r="F146" s="34"/>
+      <c r="G146" s="34"/>
+      <c r="H146" s="34"/>
+      <c r="I146" s="34"/>
+      <c r="J146" s="34"/>
+      <c r="K146" s="34"/>
+      <c r="L146" s="35"/>
       <c r="AIG146" s="26"/>
       <c r="AIH146" s="26"/>
       <c r="AII146" s="26"/>
@@ -11031,18 +10706,22 @@
       <c r="AMJ146" s="26"/>
     </row>
     <row r="147" s="25" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A147" s="45"/>
-      <c r="B147" s="26"/>
-      <c r="C147" s="49"/>
-      <c r="D147" s="49"/>
-      <c r="E147" s="49"/>
-      <c r="F147" s="49"/>
-      <c r="G147" s="49"/>
-      <c r="H147" s="49"/>
-      <c r="I147" s="49"/>
-      <c r="J147" s="49"/>
-      <c r="K147" s="49"/>
-      <c r="L147" s="49"/>
+      <c r="A147" s="19"/>
+      <c r="B147" s="19"/>
+      <c r="C147" s="19"/>
+      <c r="D147" s="19"/>
+      <c r="E147" s="19"/>
+      <c r="F147" s="19"/>
+      <c r="G147" s="19"/>
+      <c r="H147" s="36" t="s">
+        <v>61</v>
+      </c>
+      <c r="I147" s="36"/>
+      <c r="J147" s="36" t="s">
+        <v>233</v>
+      </c>
+      <c r="K147" s="36"/>
+      <c r="L147" s="37"/>
       <c r="AIG147" s="26"/>
       <c r="AIH147" s="26"/>
       <c r="AII147" s="26"/>
@@ -11275,20 +10954,18 @@
       <c r="AMJ148" s="26"/>
     </row>
     <row r="149" s="25" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A149" s="19"/>
-      <c r="B149" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="C149" s="23"/>
-      <c r="D149" s="23"/>
-      <c r="E149" s="23"/>
-      <c r="F149" s="23"/>
-      <c r="G149" s="23"/>
-      <c r="H149" s="23"/>
-      <c r="I149" s="23"/>
-      <c r="J149" s="23"/>
-      <c r="K149" s="23"/>
-      <c r="L149" s="57"/>
+      <c r="A149" s="0"/>
+      <c r="B149" s="0"/>
+      <c r="C149" s="0"/>
+      <c r="D149" s="0"/>
+      <c r="E149" s="0"/>
+      <c r="F149" s="0"/>
+      <c r="G149" s="0"/>
+      <c r="H149" s="0"/>
+      <c r="I149" s="0"/>
+      <c r="J149" s="0"/>
+      <c r="K149" s="0"/>
+      <c r="L149" s="0"/>
       <c r="AIG149" s="26"/>
       <c r="AIH149" s="26"/>
       <c r="AII149" s="26"/>
@@ -11399,18 +11076,20 @@
       <c r="AMJ149" s="26"/>
     </row>
     <row r="150" s="25" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A150" s="19"/>
-      <c r="B150" s="30"/>
-      <c r="C150" s="30"/>
-      <c r="D150" s="23"/>
-      <c r="E150" s="23"/>
-      <c r="F150" s="23"/>
-      <c r="G150" s="23"/>
-      <c r="H150" s="23"/>
-      <c r="I150" s="23"/>
-      <c r="J150" s="23"/>
-      <c r="K150" s="23"/>
-      <c r="L150" s="51"/>
+      <c r="A150" s="15"/>
+      <c r="B150" s="15"/>
+      <c r="C150" s="2"/>
+      <c r="D150" s="16" t="s">
+        <v>234</v>
+      </c>
+      <c r="E150" s="16"/>
+      <c r="F150" s="56"/>
+      <c r="G150" s="56"/>
+      <c r="H150" s="56"/>
+      <c r="I150" s="56"/>
+      <c r="J150" s="56"/>
+      <c r="K150" s="56"/>
+      <c r="L150" s="16"/>
       <c r="AIG150" s="26"/>
       <c r="AIH150" s="26"/>
       <c r="AII150" s="26"/>
@@ -11521,166 +11200,128 @@
       <c r="AMJ150" s="26"/>
     </row>
     <row r="151" s="22" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A151" s="19"/>
-      <c r="B151" s="18"/>
-      <c r="C151" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D151" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E151" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="F151" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="G151" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="H151" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="I151" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J151" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="K151" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="L151" s="28"/>
+      <c r="A151" s="15"/>
+      <c r="B151" s="15"/>
+      <c r="C151" s="2"/>
+      <c r="D151" s="56"/>
+      <c r="E151" s="56"/>
+      <c r="F151" s="56"/>
+      <c r="G151" s="56"/>
+      <c r="H151" s="56"/>
+      <c r="I151" s="56"/>
+      <c r="J151" s="56"/>
+      <c r="K151" s="56"/>
+      <c r="L151" s="16"/>
     </row>
     <row r="152" s="22" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A152" s="19"/>
-      <c r="B152" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C152" s="18" t="s">
+      <c r="A152" s="15"/>
+      <c r="B152" s="15"/>
+      <c r="C152" s="2"/>
+      <c r="D152" s="56"/>
+      <c r="E152" s="56"/>
+      <c r="F152" s="56"/>
+      <c r="G152" s="56"/>
+      <c r="H152" s="56"/>
+      <c r="I152" s="56"/>
+      <c r="J152" s="56"/>
+      <c r="K152" s="56"/>
+      <c r="L152" s="16"/>
+    </row>
+    <row r="153" s="22" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A153" s="15"/>
+      <c r="B153" s="15"/>
+      <c r="C153" s="2"/>
+      <c r="D153" s="56"/>
+      <c r="E153" s="56"/>
+      <c r="F153" s="56"/>
+      <c r="G153" s="56"/>
+      <c r="H153" s="56"/>
+      <c r="I153" s="56"/>
+      <c r="J153" s="56"/>
+      <c r="K153" s="56"/>
+      <c r="L153" s="16"/>
+    </row>
+    <row r="154" s="22" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A154" s="15"/>
+      <c r="B154" s="15"/>
+      <c r="C154" s="50"/>
+      <c r="D154" s="50"/>
+      <c r="E154" s="50"/>
+      <c r="F154" s="50"/>
+      <c r="G154" s="50"/>
+      <c r="H154" s="50"/>
+      <c r="I154" s="50"/>
+      <c r="J154" s="50"/>
+      <c r="K154" s="50"/>
+      <c r="L154" s="50"/>
+    </row>
+    <row r="155" s="22" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A155" s="15"/>
+      <c r="B155" s="15"/>
+      <c r="C155" s="2"/>
+      <c r="D155" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="E155" s="17"/>
+      <c r="F155" s="57" t="s">
+        <v>236</v>
+      </c>
+      <c r="G155" s="57"/>
+      <c r="H155" s="2"/>
+      <c r="I155" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="J155" s="56"/>
+      <c r="K155" s="56"/>
+      <c r="L155" s="16"/>
+    </row>
+    <row r="156" s="22" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A156" s="15"/>
+      <c r="B156" s="15"/>
+      <c r="C156" s="2"/>
+      <c r="D156" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="D152" s="18" t="s">
+      <c r="E156" s="17"/>
+      <c r="F156" s="57" t="s">
         <v>239</v>
       </c>
-      <c r="E152" s="18" t="s">
-        <v>240</v>
-      </c>
-      <c r="F152" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="G152" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="H152" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="I152" s="18" t="s">
-        <v>244</v>
-      </c>
-      <c r="J152" s="18" t="s">
-        <v>245</v>
-      </c>
-      <c r="K152" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="L152" s="28"/>
-    </row>
-    <row r="153" s="22" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A153" s="19"/>
-      <c r="B153" s="44"/>
-      <c r="C153" s="44"/>
-      <c r="D153" s="32"/>
-      <c r="E153" s="32"/>
-      <c r="F153" s="32"/>
-      <c r="G153" s="32"/>
-      <c r="H153" s="32"/>
-      <c r="I153" s="32"/>
-      <c r="J153" s="32"/>
-      <c r="K153" s="32"/>
-      <c r="L153" s="28"/>
-    </row>
-    <row r="154" s="22" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A154" s="19"/>
-      <c r="B154" s="44"/>
-      <c r="C154" s="44"/>
-      <c r="D154" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E154" s="18"/>
-      <c r="F154" s="44"/>
-      <c r="G154" s="44"/>
-      <c r="H154" s="34"/>
-      <c r="I154" s="34"/>
-      <c r="J154" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="K154" s="18"/>
-      <c r="L154" s="28"/>
-    </row>
-    <row r="155" s="22" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A155" s="19"/>
-      <c r="B155" s="44"/>
-      <c r="C155" s="44"/>
-      <c r="D155" s="52" t="s">
-        <v>247</v>
-      </c>
-      <c r="E155" s="52"/>
-      <c r="F155" s="44"/>
-      <c r="G155" s="44"/>
-      <c r="H155" s="34"/>
-      <c r="I155" s="34"/>
-      <c r="J155" s="18" t="s">
-        <v>248</v>
-      </c>
-      <c r="K155" s="18"/>
-      <c r="L155" s="28"/>
-    </row>
-    <row r="156" s="22" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A156" s="19"/>
-      <c r="B156" s="44"/>
-      <c r="C156" s="44"/>
-      <c r="D156" s="42"/>
-      <c r="E156" s="53"/>
-      <c r="F156" s="53"/>
-      <c r="G156" s="53"/>
-      <c r="H156" s="42"/>
-      <c r="I156" s="30"/>
-      <c r="J156" s="54"/>
-      <c r="K156" s="54"/>
-      <c r="L156" s="28"/>
+      <c r="G156" s="57"/>
+      <c r="H156" s="2"/>
+      <c r="I156" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="J156" s="56"/>
+      <c r="K156" s="56"/>
+      <c r="L156" s="16"/>
     </row>
     <row r="157" s="22" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A157" s="19"/>
-      <c r="B157" s="30"/>
-      <c r="C157" s="30"/>
-      <c r="D157" s="30"/>
-      <c r="E157" s="30"/>
-      <c r="F157" s="30"/>
-      <c r="G157" s="30"/>
-      <c r="H157" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="I157" s="36"/>
-      <c r="J157" s="36" t="s">
-        <v>249</v>
-      </c>
-      <c r="K157" s="36"/>
-      <c r="L157" s="37"/>
+      <c r="A157" s="0"/>
+      <c r="B157" s="0"/>
+      <c r="C157" s="0"/>
+      <c r="D157" s="0"/>
+      <c r="E157" s="0"/>
+      <c r="F157" s="0"/>
+      <c r="G157" s="0"/>
+      <c r="H157" s="0"/>
+      <c r="I157" s="0"/>
+      <c r="J157" s="0"/>
+      <c r="K157" s="0"/>
+      <c r="L157" s="0"/>
     </row>
     <row r="158" s="25" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A158" s="30"/>
-      <c r="B158" s="30"/>
-      <c r="C158" s="30"/>
-      <c r="D158" s="30"/>
-      <c r="E158" s="30"/>
-      <c r="F158" s="30"/>
-      <c r="G158" s="30"/>
-      <c r="H158" s="30"/>
-      <c r="I158" s="30"/>
-      <c r="J158" s="30"/>
-      <c r="K158" s="30"/>
-      <c r="L158" s="30"/>
+      <c r="A158" s="0"/>
+      <c r="B158" s="0"/>
+      <c r="C158" s="0"/>
+      <c r="D158" s="0"/>
+      <c r="E158" s="0"/>
+      <c r="F158" s="0"/>
+      <c r="G158" s="0"/>
+      <c r="H158" s="0"/>
+      <c r="I158" s="0"/>
+      <c r="J158" s="0"/>
+      <c r="K158" s="0"/>
+      <c r="L158" s="0"/>
       <c r="AIG158" s="26"/>
       <c r="AIH158" s="26"/>
       <c r="AII158" s="26"/>
@@ -11791,18 +11432,18 @@
       <c r="AMJ158" s="26"/>
     </row>
     <row r="159" s="25" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A159" s="45"/>
-      <c r="B159" s="22"/>
-      <c r="C159" s="22"/>
-      <c r="D159" s="22"/>
-      <c r="E159" s="22"/>
-      <c r="F159" s="22"/>
-      <c r="G159" s="22"/>
-      <c r="H159" s="22"/>
-      <c r="I159" s="22"/>
-      <c r="J159" s="22"/>
-      <c r="K159" s="22"/>
-      <c r="L159" s="22"/>
+      <c r="A159" s="0"/>
+      <c r="B159" s="0"/>
+      <c r="C159" s="0"/>
+      <c r="D159" s="0"/>
+      <c r="E159" s="0"/>
+      <c r="F159" s="0"/>
+      <c r="G159" s="0"/>
+      <c r="H159" s="0"/>
+      <c r="I159" s="0"/>
+      <c r="J159" s="0"/>
+      <c r="K159" s="0"/>
+      <c r="L159" s="0"/>
       <c r="AIG159" s="26"/>
       <c r="AIH159" s="26"/>
       <c r="AII159" s="26"/>
@@ -11913,18 +11554,18 @@
       <c r="AMJ159" s="26"/>
     </row>
     <row r="160" s="25" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A160" s="30"/>
-      <c r="B160" s="30"/>
-      <c r="C160" s="30"/>
-      <c r="D160" s="30"/>
-      <c r="E160" s="30"/>
-      <c r="F160" s="30"/>
-      <c r="G160" s="30"/>
-      <c r="H160" s="30"/>
-      <c r="I160" s="30"/>
-      <c r="J160" s="30"/>
-      <c r="K160" s="30"/>
-      <c r="L160" s="30"/>
+      <c r="A160" s="0"/>
+      <c r="B160" s="0"/>
+      <c r="C160" s="0"/>
+      <c r="D160" s="0"/>
+      <c r="E160" s="0"/>
+      <c r="F160" s="0"/>
+      <c r="G160" s="0"/>
+      <c r="H160" s="0"/>
+      <c r="I160" s="0"/>
+      <c r="J160" s="0"/>
+      <c r="K160" s="0"/>
+      <c r="L160" s="0"/>
       <c r="AIG160" s="26"/>
       <c r="AIH160" s="26"/>
       <c r="AII160" s="26"/>
@@ -12035,20 +11676,18 @@
       <c r="AMJ160" s="26"/>
     </row>
     <row r="161" s="25" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A161" s="19"/>
-      <c r="B161" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="C161" s="23"/>
-      <c r="D161" s="23"/>
-      <c r="E161" s="23"/>
-      <c r="F161" s="23"/>
-      <c r="G161" s="23"/>
-      <c r="H161" s="23"/>
-      <c r="I161" s="23"/>
-      <c r="J161" s="23"/>
-      <c r="K161" s="23"/>
-      <c r="L161" s="57"/>
+      <c r="A161" s="0"/>
+      <c r="B161" s="0"/>
+      <c r="C161" s="0"/>
+      <c r="D161" s="0"/>
+      <c r="E161" s="0"/>
+      <c r="F161" s="0"/>
+      <c r="G161" s="0"/>
+      <c r="H161" s="0"/>
+      <c r="I161" s="0"/>
+      <c r="J161" s="0"/>
+      <c r="K161" s="0"/>
+      <c r="L161" s="0"/>
       <c r="AIG161" s="26"/>
       <c r="AIH161" s="26"/>
       <c r="AII161" s="26"/>
@@ -12159,18 +11798,18 @@
       <c r="AMJ161" s="26"/>
     </row>
     <row r="162" s="25" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A162" s="19"/>
-      <c r="B162" s="30"/>
-      <c r="C162" s="30"/>
-      <c r="D162" s="23"/>
-      <c r="E162" s="23"/>
-      <c r="F162" s="23"/>
-      <c r="G162" s="23"/>
-      <c r="H162" s="23"/>
-      <c r="I162" s="23"/>
-      <c r="J162" s="23"/>
-      <c r="K162" s="23"/>
-      <c r="L162" s="51"/>
+      <c r="A162" s="0"/>
+      <c r="B162" s="0"/>
+      <c r="C162" s="0"/>
+      <c r="D162" s="0"/>
+      <c r="E162" s="0"/>
+      <c r="F162" s="0"/>
+      <c r="G162" s="0"/>
+      <c r="H162" s="0"/>
+      <c r="I162" s="0"/>
+      <c r="J162" s="0"/>
+      <c r="K162" s="0"/>
+      <c r="L162" s="0"/>
       <c r="AIG162" s="26"/>
       <c r="AIH162" s="26"/>
       <c r="AII162" s="26"/>
@@ -12281,166 +11920,116 @@
       <c r="AMJ162" s="26"/>
     </row>
     <row r="163" s="22" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A163" s="19"/>
-      <c r="B163" s="18"/>
-      <c r="C163" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D163" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E163" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="F163" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="G163" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="H163" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="I163" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J163" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="K163" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="L163" s="28"/>
+      <c r="A163" s="0"/>
+      <c r="B163" s="0"/>
+      <c r="C163" s="0"/>
+      <c r="D163" s="0"/>
+      <c r="E163" s="0"/>
+      <c r="F163" s="0"/>
+      <c r="G163" s="0"/>
+      <c r="H163" s="0"/>
+      <c r="I163" s="0"/>
+      <c r="J163" s="0"/>
+      <c r="K163" s="0"/>
+      <c r="L163" s="0"/>
     </row>
     <row r="164" s="22" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A164" s="19"/>
-      <c r="B164" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C164" s="18" t="s">
-        <v>251</v>
-      </c>
-      <c r="D164" s="18" t="s">
-        <v>252</v>
-      </c>
-      <c r="E164" s="18" t="s">
-        <v>253</v>
-      </c>
-      <c r="F164" s="18" t="s">
-        <v>254</v>
-      </c>
-      <c r="G164" s="18" t="s">
-        <v>255</v>
-      </c>
-      <c r="H164" s="18" t="s">
-        <v>256</v>
-      </c>
-      <c r="I164" s="18" t="s">
-        <v>257</v>
-      </c>
-      <c r="J164" s="18" t="s">
-        <v>258</v>
-      </c>
-      <c r="K164" s="18" t="s">
-        <v>259</v>
-      </c>
-      <c r="L164" s="28"/>
+      <c r="A164" s="0"/>
+      <c r="B164" s="0"/>
+      <c r="C164" s="0"/>
+      <c r="D164" s="0"/>
+      <c r="E164" s="0"/>
+      <c r="F164" s="0"/>
+      <c r="G164" s="0"/>
+      <c r="H164" s="0"/>
+      <c r="I164" s="0"/>
+      <c r="J164" s="0"/>
+      <c r="K164" s="0"/>
+      <c r="L164" s="0"/>
     </row>
     <row r="165" s="22" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A165" s="19"/>
-      <c r="B165" s="44"/>
-      <c r="C165" s="44"/>
-      <c r="D165" s="32"/>
-      <c r="E165" s="32"/>
-      <c r="F165" s="32"/>
-      <c r="G165" s="32"/>
-      <c r="H165" s="32"/>
-      <c r="I165" s="32"/>
-      <c r="J165" s="32"/>
-      <c r="K165" s="32"/>
-      <c r="L165" s="28"/>
+      <c r="A165" s="0"/>
+      <c r="B165" s="0"/>
+      <c r="C165" s="0"/>
+      <c r="D165" s="0"/>
+      <c r="E165" s="0"/>
+      <c r="F165" s="0"/>
+      <c r="G165" s="0"/>
+      <c r="H165" s="0"/>
+      <c r="I165" s="0"/>
+      <c r="J165" s="0"/>
+      <c r="K165" s="0"/>
+      <c r="L165" s="0"/>
     </row>
     <row r="166" s="22" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A166" s="19"/>
-      <c r="B166" s="44"/>
-      <c r="C166" s="44"/>
-      <c r="D166" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E166" s="18"/>
-      <c r="F166" s="44"/>
-      <c r="G166" s="44"/>
-      <c r="H166" s="34"/>
-      <c r="I166" s="34"/>
-      <c r="J166" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="K166" s="18"/>
-      <c r="L166" s="28"/>
+      <c r="A166" s="0"/>
+      <c r="B166" s="0"/>
+      <c r="C166" s="0"/>
+      <c r="D166" s="0"/>
+      <c r="E166" s="0"/>
+      <c r="F166" s="0"/>
+      <c r="G166" s="0"/>
+      <c r="H166" s="0"/>
+      <c r="I166" s="0"/>
+      <c r="J166" s="0"/>
+      <c r="K166" s="0"/>
+      <c r="L166" s="0"/>
     </row>
     <row r="167" s="22" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A167" s="19"/>
-      <c r="B167" s="44"/>
-      <c r="C167" s="44"/>
-      <c r="D167" s="52" t="s">
-        <v>260</v>
-      </c>
-      <c r="E167" s="52"/>
-      <c r="F167" s="44"/>
-      <c r="G167" s="44"/>
-      <c r="H167" s="34"/>
-      <c r="I167" s="34"/>
-      <c r="J167" s="18" t="s">
-        <v>261</v>
-      </c>
-      <c r="K167" s="18"/>
-      <c r="L167" s="28"/>
+      <c r="A167" s="0"/>
+      <c r="B167" s="0"/>
+      <c r="C167" s="0"/>
+      <c r="D167" s="0"/>
+      <c r="E167" s="0"/>
+      <c r="F167" s="0"/>
+      <c r="G167" s="0"/>
+      <c r="H167" s="0"/>
+      <c r="I167" s="0"/>
+      <c r="J167" s="0"/>
+      <c r="K167" s="0"/>
+      <c r="L167" s="0"/>
     </row>
     <row r="168" s="22" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A168" s="19"/>
-      <c r="B168" s="44"/>
-      <c r="C168" s="44"/>
-      <c r="D168" s="42"/>
-      <c r="E168" s="53"/>
-      <c r="F168" s="53"/>
-      <c r="G168" s="53"/>
-      <c r="H168" s="42"/>
-      <c r="I168" s="30"/>
-      <c r="J168" s="54"/>
-      <c r="K168" s="54"/>
-      <c r="L168" s="28"/>
+      <c r="A168" s="0"/>
+      <c r="B168" s="0"/>
+      <c r="C168" s="0"/>
+      <c r="D168" s="0"/>
+      <c r="E168" s="0"/>
+      <c r="F168" s="0"/>
+      <c r="G168" s="0"/>
+      <c r="H168" s="0"/>
+      <c r="I168" s="0"/>
+      <c r="J168" s="0"/>
+      <c r="K168" s="0"/>
+      <c r="L168" s="0"/>
     </row>
     <row r="169" s="22" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A169" s="19"/>
-      <c r="B169" s="30"/>
-      <c r="C169" s="30"/>
-      <c r="D169" s="30"/>
-      <c r="E169" s="30"/>
-      <c r="F169" s="30"/>
-      <c r="G169" s="30"/>
-      <c r="H169" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="I169" s="36"/>
-      <c r="J169" s="36" t="s">
-        <v>262</v>
-      </c>
-      <c r="K169" s="36"/>
-      <c r="L169" s="37"/>
+      <c r="A169" s="0"/>
+      <c r="B169" s="0"/>
+      <c r="C169" s="0"/>
+      <c r="D169" s="0"/>
+      <c r="E169" s="0"/>
+      <c r="F169" s="0"/>
+      <c r="G169" s="0"/>
+      <c r="H169" s="0"/>
+      <c r="I169" s="0"/>
+      <c r="J169" s="0"/>
+      <c r="K169" s="0"/>
+      <c r="L169" s="0"/>
     </row>
     <row r="170" s="25" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A170" s="30"/>
-      <c r="B170" s="30"/>
-      <c r="C170" s="30"/>
-      <c r="D170" s="30"/>
-      <c r="E170" s="30"/>
-      <c r="F170" s="30"/>
-      <c r="G170" s="30"/>
-      <c r="H170" s="30"/>
-      <c r="I170" s="30"/>
-      <c r="J170" s="30"/>
-      <c r="K170" s="30"/>
-      <c r="L170" s="30"/>
+      <c r="A170" s="0"/>
+      <c r="B170" s="0"/>
+      <c r="C170" s="0"/>
+      <c r="D170" s="0"/>
+      <c r="E170" s="0"/>
+      <c r="F170" s="0"/>
+      <c r="G170" s="0"/>
+      <c r="H170" s="0"/>
+      <c r="I170" s="0"/>
+      <c r="J170" s="0"/>
+      <c r="K170" s="0"/>
+      <c r="L170" s="0"/>
       <c r="AIG170" s="26"/>
       <c r="AIH170" s="26"/>
       <c r="AII170" s="26"/>
@@ -12551,18 +12140,18 @@
       <c r="AMJ170" s="26"/>
     </row>
     <row r="171" s="25" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A171" s="45"/>
-      <c r="B171" s="22"/>
-      <c r="C171" s="22"/>
-      <c r="D171" s="49"/>
-      <c r="E171" s="49"/>
-      <c r="F171" s="49"/>
-      <c r="G171" s="49"/>
-      <c r="H171" s="49"/>
-      <c r="I171" s="49"/>
-      <c r="J171" s="49"/>
-      <c r="K171" s="49"/>
-      <c r="L171" s="49"/>
+      <c r="A171" s="0"/>
+      <c r="B171" s="0"/>
+      <c r="C171" s="0"/>
+      <c r="D171" s="0"/>
+      <c r="E171" s="0"/>
+      <c r="F171" s="0"/>
+      <c r="G171" s="0"/>
+      <c r="H171" s="0"/>
+      <c r="I171" s="0"/>
+      <c r="J171" s="0"/>
+      <c r="K171" s="0"/>
+      <c r="L171" s="0"/>
       <c r="AIG171" s="26"/>
       <c r="AIH171" s="26"/>
       <c r="AII171" s="26"/>
@@ -12673,18 +12262,18 @@
       <c r="AMJ171" s="26"/>
     </row>
     <row r="172" s="25" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A172" s="30"/>
-      <c r="B172" s="30"/>
-      <c r="C172" s="30"/>
-      <c r="D172" s="30"/>
-      <c r="E172" s="30"/>
-      <c r="F172" s="30"/>
-      <c r="G172" s="30"/>
-      <c r="H172" s="30"/>
-      <c r="I172" s="30"/>
-      <c r="J172" s="30"/>
-      <c r="K172" s="30"/>
-      <c r="L172" s="30"/>
+      <c r="A172" s="0"/>
+      <c r="B172" s="0"/>
+      <c r="C172" s="0"/>
+      <c r="D172" s="0"/>
+      <c r="E172" s="0"/>
+      <c r="F172" s="0"/>
+      <c r="G172" s="0"/>
+      <c r="H172" s="0"/>
+      <c r="I172" s="0"/>
+      <c r="J172" s="0"/>
+      <c r="K172" s="0"/>
+      <c r="L172" s="0"/>
       <c r="AIG172" s="26"/>
       <c r="AIH172" s="26"/>
       <c r="AII172" s="26"/>
@@ -12795,20 +12384,18 @@
       <c r="AMJ172" s="26"/>
     </row>
     <row r="173" s="25" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A173" s="19"/>
-      <c r="B173" s="23" t="s">
-        <v>263</v>
-      </c>
-      <c r="C173" s="23"/>
-      <c r="D173" s="23"/>
-      <c r="E173" s="23"/>
-      <c r="F173" s="23"/>
-      <c r="G173" s="23"/>
-      <c r="H173" s="23"/>
-      <c r="I173" s="23"/>
-      <c r="J173" s="23"/>
-      <c r="K173" s="23"/>
-      <c r="L173" s="57"/>
+      <c r="A173" s="0"/>
+      <c r="B173" s="0"/>
+      <c r="C173" s="0"/>
+      <c r="D173" s="0"/>
+      <c r="E173" s="0"/>
+      <c r="F173" s="0"/>
+      <c r="G173" s="0"/>
+      <c r="H173" s="0"/>
+      <c r="I173" s="0"/>
+      <c r="J173" s="0"/>
+      <c r="K173" s="0"/>
+      <c r="L173" s="0"/>
       <c r="AIG173" s="26"/>
       <c r="AIH173" s="26"/>
       <c r="AII173" s="26"/>
@@ -12919,307 +12506,257 @@
       <c r="AMJ173" s="26"/>
     </row>
     <row r="174" s="22" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A174" s="19"/>
-      <c r="B174" s="30"/>
-      <c r="C174" s="30"/>
-      <c r="D174" s="23"/>
-      <c r="E174" s="23"/>
-      <c r="F174" s="23"/>
-      <c r="G174" s="23"/>
-      <c r="H174" s="23"/>
-      <c r="I174" s="23"/>
-      <c r="J174" s="23"/>
-      <c r="K174" s="23"/>
-      <c r="L174" s="51"/>
+      <c r="A174" s="0"/>
+      <c r="B174" s="0"/>
+      <c r="C174" s="0"/>
+      <c r="D174" s="0"/>
+      <c r="E174" s="0"/>
+      <c r="F174" s="0"/>
+      <c r="G174" s="0"/>
+      <c r="H174" s="0"/>
+      <c r="I174" s="0"/>
+      <c r="J174" s="0"/>
+      <c r="K174" s="0"/>
+      <c r="L174" s="0"/>
     </row>
     <row r="175" s="22" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A175" s="19"/>
-      <c r="B175" s="18"/>
-      <c r="C175" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="D175" s="18" t="s">
-        <v>35</v>
-      </c>
-      <c r="E175" s="18" t="s">
-        <v>36</v>
-      </c>
-      <c r="F175" s="18" t="s">
-        <v>37</v>
-      </c>
-      <c r="G175" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="H175" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="I175" s="18" t="s">
-        <v>23</v>
-      </c>
-      <c r="J175" s="18" t="s">
-        <v>40</v>
-      </c>
-      <c r="K175" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="L175" s="28"/>
+      <c r="A175" s="0"/>
+      <c r="B175" s="0"/>
+      <c r="C175" s="0"/>
+      <c r="D175" s="0"/>
+      <c r="E175" s="0"/>
+      <c r="F175" s="0"/>
+      <c r="G175" s="0"/>
+      <c r="H175" s="0"/>
+      <c r="I175" s="0"/>
+      <c r="J175" s="0"/>
+      <c r="K175" s="0"/>
+      <c r="L175" s="0"/>
     </row>
     <row r="176" s="22" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A176" s="19"/>
-      <c r="B176" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="C176" s="18" t="s">
-        <v>264</v>
-      </c>
-      <c r="D176" s="18" t="s">
-        <v>265</v>
-      </c>
-      <c r="E176" s="18" t="s">
-        <v>266</v>
-      </c>
-      <c r="F176" s="18" t="s">
-        <v>267</v>
-      </c>
-      <c r="G176" s="18" t="s">
-        <v>268</v>
-      </c>
-      <c r="H176" s="18" t="s">
-        <v>269</v>
-      </c>
-      <c r="I176" s="18" t="s">
-        <v>270</v>
-      </c>
-      <c r="J176" s="18" t="s">
-        <v>271</v>
-      </c>
-      <c r="K176" s="18" t="s">
-        <v>272</v>
-      </c>
-      <c r="L176" s="28"/>
+      <c r="A176" s="0"/>
+      <c r="B176" s="0"/>
+      <c r="C176" s="0"/>
+      <c r="D176" s="0"/>
+      <c r="E176" s="0"/>
+      <c r="F176" s="0"/>
+      <c r="G176" s="0"/>
+      <c r="H176" s="0"/>
+      <c r="I176" s="0"/>
+      <c r="J176" s="0"/>
+      <c r="K176" s="0"/>
+      <c r="L176" s="0"/>
     </row>
     <row r="177" s="22" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A177" s="19"/>
-      <c r="B177" s="44"/>
-      <c r="C177" s="44"/>
-      <c r="D177" s="32"/>
-      <c r="E177" s="32"/>
-      <c r="F177" s="32"/>
-      <c r="G177" s="32"/>
-      <c r="H177" s="32"/>
-      <c r="I177" s="32"/>
-      <c r="J177" s="32"/>
-      <c r="K177" s="32"/>
-      <c r="L177" s="28"/>
+      <c r="A177" s="0"/>
+      <c r="B177" s="0"/>
+      <c r="C177" s="0"/>
+      <c r="D177" s="0"/>
+      <c r="E177" s="0"/>
+      <c r="F177" s="0"/>
+      <c r="G177" s="0"/>
+      <c r="H177" s="0"/>
+      <c r="I177" s="0"/>
+      <c r="J177" s="0"/>
+      <c r="K177" s="0"/>
+      <c r="L177" s="0"/>
     </row>
     <row r="178" s="22" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A178" s="19"/>
-      <c r="B178" s="44"/>
-      <c r="C178" s="44"/>
-      <c r="D178" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E178" s="18"/>
-      <c r="F178" s="44"/>
-      <c r="G178" s="44"/>
-      <c r="H178" s="34"/>
-      <c r="I178" s="34"/>
-      <c r="J178" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="K178" s="18"/>
-      <c r="L178" s="28"/>
+      <c r="A178" s="0"/>
+      <c r="B178" s="0"/>
+      <c r="C178" s="0"/>
+      <c r="D178" s="0"/>
+      <c r="E178" s="0"/>
+      <c r="F178" s="0"/>
+      <c r="G178" s="0"/>
+      <c r="H178" s="0"/>
+      <c r="I178" s="0"/>
+      <c r="J178" s="0"/>
+      <c r="K178" s="0"/>
+      <c r="L178" s="0"/>
     </row>
     <row r="179" s="22" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A179" s="19"/>
-      <c r="B179" s="44"/>
-      <c r="C179" s="44"/>
-      <c r="D179" s="52" t="s">
-        <v>273</v>
-      </c>
-      <c r="E179" s="52"/>
-      <c r="F179" s="44"/>
-      <c r="G179" s="44"/>
-      <c r="H179" s="34"/>
-      <c r="I179" s="34"/>
-      <c r="J179" s="18" t="s">
-        <v>274</v>
-      </c>
-      <c r="K179" s="18"/>
-      <c r="L179" s="28"/>
+      <c r="A179" s="0"/>
+      <c r="B179" s="0"/>
+      <c r="C179" s="0"/>
+      <c r="D179" s="0"/>
+      <c r="E179" s="0"/>
+      <c r="F179" s="0"/>
+      <c r="G179" s="0"/>
+      <c r="H179" s="0"/>
+      <c r="I179" s="0"/>
+      <c r="J179" s="0"/>
+      <c r="K179" s="0"/>
+      <c r="L179" s="0"/>
     </row>
     <row r="180" s="22" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A180" s="19"/>
-      <c r="B180" s="44"/>
-      <c r="C180" s="44"/>
-      <c r="D180" s="42"/>
-      <c r="E180" s="53"/>
-      <c r="F180" s="53"/>
-      <c r="G180" s="53"/>
-      <c r="H180" s="42"/>
-      <c r="I180" s="30"/>
-      <c r="J180" s="54"/>
-      <c r="K180" s="54"/>
-      <c r="L180" s="28"/>
+      <c r="A180" s="0"/>
+      <c r="B180" s="0"/>
+      <c r="C180" s="0"/>
+      <c r="D180" s="0"/>
+      <c r="E180" s="0"/>
+      <c r="F180" s="0"/>
+      <c r="G180" s="0"/>
+      <c r="H180" s="0"/>
+      <c r="I180" s="0"/>
+      <c r="J180" s="0"/>
+      <c r="K180" s="0"/>
+      <c r="L180" s="0"/>
     </row>
     <row r="181" s="22" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A181" s="19"/>
-      <c r="B181" s="30"/>
-      <c r="C181" s="30"/>
-      <c r="D181" s="30"/>
-      <c r="E181" s="30"/>
-      <c r="F181" s="30"/>
-      <c r="G181" s="30"/>
-      <c r="H181" s="36" t="s">
-        <v>67</v>
-      </c>
-      <c r="I181" s="36"/>
-      <c r="J181" s="36" t="s">
-        <v>275</v>
-      </c>
-      <c r="K181" s="36"/>
-      <c r="L181" s="37"/>
+      <c r="A181" s="0"/>
+      <c r="B181" s="0"/>
+      <c r="C181" s="0"/>
+      <c r="D181" s="0"/>
+      <c r="E181" s="0"/>
+      <c r="F181" s="0"/>
+      <c r="G181" s="0"/>
+      <c r="H181" s="0"/>
+      <c r="I181" s="0"/>
+      <c r="J181" s="0"/>
+      <c r="K181" s="0"/>
+      <c r="L181" s="0"/>
     </row>
     <row r="182" s="22" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A182" s="30"/>
-      <c r="B182" s="30"/>
-      <c r="C182" s="30"/>
-      <c r="D182" s="30"/>
-      <c r="E182" s="30"/>
-      <c r="F182" s="30"/>
-      <c r="G182" s="30"/>
-      <c r="H182" s="30"/>
-      <c r="I182" s="30"/>
-      <c r="J182" s="30"/>
-      <c r="K182" s="30"/>
-      <c r="L182" s="30"/>
+      <c r="A182" s="0"/>
+      <c r="B182" s="0"/>
+      <c r="C182" s="0"/>
+      <c r="D182" s="0"/>
+      <c r="E182" s="0"/>
+      <c r="F182" s="0"/>
+      <c r="G182" s="0"/>
+      <c r="H182" s="0"/>
+      <c r="I182" s="0"/>
+      <c r="J182" s="0"/>
+      <c r="K182" s="0"/>
+      <c r="L182" s="0"/>
     </row>
     <row r="183" s="22" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A183" s="30"/>
-      <c r="B183" s="30"/>
-      <c r="C183" s="30"/>
-      <c r="D183" s="30"/>
-      <c r="E183" s="30"/>
-      <c r="F183" s="30"/>
-      <c r="G183" s="30"/>
-      <c r="H183" s="30"/>
-      <c r="I183" s="30"/>
-      <c r="J183" s="30"/>
-      <c r="K183" s="30"/>
-      <c r="L183" s="30"/>
+      <c r="A183" s="0"/>
+      <c r="B183" s="0"/>
+      <c r="C183" s="0"/>
+      <c r="D183" s="0"/>
+      <c r="E183" s="0"/>
+      <c r="F183" s="0"/>
+      <c r="G183" s="0"/>
+      <c r="H183" s="0"/>
+      <c r="I183" s="0"/>
+      <c r="J183" s="0"/>
+      <c r="K183" s="0"/>
+      <c r="L183" s="0"/>
     </row>
     <row r="184" s="15" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C184" s="49"/>
-      <c r="D184" s="49"/>
-      <c r="E184" s="49"/>
-      <c r="F184" s="49"/>
-      <c r="G184" s="49"/>
-      <c r="H184" s="49"/>
-      <c r="I184" s="49"/>
-      <c r="J184" s="49"/>
-      <c r="K184" s="49"/>
-      <c r="L184" s="49"/>
+      <c r="C184" s="50"/>
+      <c r="D184" s="50"/>
+      <c r="E184" s="50"/>
+      <c r="F184" s="50"/>
+      <c r="G184" s="50"/>
+      <c r="H184" s="50"/>
+      <c r="I184" s="50"/>
+      <c r="J184" s="50"/>
+      <c r="K184" s="50"/>
+      <c r="L184" s="50"/>
     </row>
     <row r="185" s="15" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C185" s="2"/>
-      <c r="D185" s="16" t="s">
-        <v>276</v>
-      </c>
-      <c r="E185" s="16"/>
-      <c r="F185" s="58"/>
-      <c r="G185" s="58"/>
-      <c r="H185" s="58"/>
-      <c r="I185" s="58"/>
-      <c r="J185" s="58"/>
-      <c r="K185" s="58"/>
-      <c r="L185" s="16"/>
+      <c r="A185" s="0"/>
+      <c r="B185" s="0"/>
+      <c r="C185" s="0"/>
+      <c r="D185" s="0"/>
+      <c r="E185" s="0"/>
+      <c r="F185" s="0"/>
+      <c r="G185" s="0"/>
+      <c r="H185" s="0"/>
+      <c r="I185" s="0"/>
+      <c r="J185" s="0"/>
+      <c r="K185" s="0"/>
+      <c r="L185" s="0"/>
     </row>
     <row r="186" s="15" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C186" s="2"/>
-      <c r="D186" s="58"/>
-      <c r="E186" s="58"/>
-      <c r="F186" s="58"/>
-      <c r="G186" s="58"/>
-      <c r="H186" s="58"/>
-      <c r="I186" s="58"/>
-      <c r="J186" s="58"/>
-      <c r="K186" s="58"/>
-      <c r="L186" s="16"/>
+      <c r="A186" s="0"/>
+      <c r="B186" s="0"/>
+      <c r="C186" s="0"/>
+      <c r="D186" s="0"/>
+      <c r="E186" s="0"/>
+      <c r="F186" s="0"/>
+      <c r="G186" s="0"/>
+      <c r="H186" s="0"/>
+      <c r="I186" s="0"/>
+      <c r="J186" s="0"/>
+      <c r="K186" s="0"/>
+      <c r="L186" s="0"/>
     </row>
     <row r="187" s="15" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C187" s="2"/>
-      <c r="D187" s="58"/>
-      <c r="E187" s="58"/>
-      <c r="F187" s="58"/>
-      <c r="G187" s="58"/>
-      <c r="H187" s="58"/>
-      <c r="I187" s="58"/>
-      <c r="J187" s="58"/>
-      <c r="K187" s="58"/>
-      <c r="L187" s="16"/>
+      <c r="A187" s="0"/>
+      <c r="B187" s="0"/>
+      <c r="C187" s="0"/>
+      <c r="D187" s="0"/>
+      <c r="E187" s="0"/>
+      <c r="F187" s="0"/>
+      <c r="G187" s="0"/>
+      <c r="H187" s="0"/>
+      <c r="I187" s="0"/>
+      <c r="J187" s="0"/>
+      <c r="K187" s="0"/>
+      <c r="L187" s="0"/>
     </row>
     <row r="188" s="15" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C188" s="2"/>
-      <c r="D188" s="58"/>
-      <c r="E188" s="58"/>
-      <c r="F188" s="58"/>
-      <c r="G188" s="58"/>
-      <c r="H188" s="58"/>
-      <c r="I188" s="58"/>
-      <c r="J188" s="58"/>
-      <c r="K188" s="58"/>
-      <c r="L188" s="16"/>
+      <c r="A188" s="0"/>
+      <c r="B188" s="0"/>
+      <c r="C188" s="0"/>
+      <c r="D188" s="0"/>
+      <c r="E188" s="0"/>
+      <c r="F188" s="0"/>
+      <c r="G188" s="0"/>
+      <c r="H188" s="0"/>
+      <c r="I188" s="0"/>
+      <c r="J188" s="0"/>
+      <c r="K188" s="0"/>
+      <c r="L188" s="0"/>
     </row>
     <row r="189" s="15" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C189" s="49"/>
-      <c r="D189" s="49"/>
-      <c r="E189" s="49"/>
-      <c r="F189" s="49"/>
-      <c r="G189" s="49"/>
-      <c r="H189" s="49"/>
-      <c r="I189" s="49"/>
-      <c r="J189" s="49"/>
-      <c r="K189" s="49"/>
-      <c r="L189" s="49"/>
+      <c r="A189" s="0"/>
+      <c r="B189" s="0"/>
+      <c r="C189" s="0"/>
+      <c r="D189" s="0"/>
+      <c r="E189" s="0"/>
+      <c r="F189" s="0"/>
+      <c r="G189" s="0"/>
+      <c r="H189" s="0"/>
+      <c r="I189" s="0"/>
+      <c r="J189" s="0"/>
+      <c r="K189" s="0"/>
+      <c r="L189" s="0"/>
     </row>
     <row r="190" s="15" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C190" s="2"/>
-      <c r="D190" s="17" t="s">
-        <v>277</v>
-      </c>
-      <c r="E190" s="17"/>
-      <c r="F190" s="59" t="s">
-        <v>278</v>
-      </c>
-      <c r="G190" s="59"/>
-      <c r="H190" s="2"/>
-      <c r="I190" s="17" t="s">
-        <v>279</v>
-      </c>
-      <c r="J190" s="58"/>
-      <c r="K190" s="58"/>
-      <c r="L190" s="16"/>
+      <c r="A190" s="0"/>
+      <c r="B190" s="0"/>
+      <c r="C190" s="0"/>
+      <c r="D190" s="0"/>
+      <c r="E190" s="0"/>
+      <c r="F190" s="0"/>
+      <c r="G190" s="0"/>
+      <c r="H190" s="0"/>
+      <c r="I190" s="0"/>
+      <c r="J190" s="0"/>
+      <c r="K190" s="0"/>
+      <c r="L190" s="0"/>
     </row>
     <row r="191" s="15" customFormat="true" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C191" s="2"/>
-      <c r="D191" s="17" t="s">
-        <v>280</v>
-      </c>
-      <c r="E191" s="17"/>
-      <c r="F191" s="59" t="s">
-        <v>281</v>
-      </c>
-      <c r="G191" s="59"/>
-      <c r="H191" s="2"/>
-      <c r="I191" s="17" t="s">
-        <v>279</v>
-      </c>
-      <c r="J191" s="58"/>
-      <c r="K191" s="58"/>
-      <c r="L191" s="16"/>
+      <c r="A191" s="0"/>
+      <c r="B191" s="0"/>
+      <c r="C191" s="0"/>
+      <c r="D191" s="0"/>
+      <c r="E191" s="0"/>
+      <c r="F191" s="0"/>
+      <c r="G191" s="0"/>
+      <c r="H191" s="0"/>
+      <c r="I191" s="0"/>
+      <c r="J191" s="0"/>
+      <c r="K191" s="0"/>
+      <c r="L191" s="0"/>
     </row>
   </sheetData>
-  <mergeCells count="159">
+  <mergeCells count="127">
     <mergeCell ref="B1:D5"/>
     <mergeCell ref="E1:H1"/>
     <mergeCell ref="J1:K1"/>
@@ -13268,7 +12805,7 @@
     <mergeCell ref="F48:H48"/>
     <mergeCell ref="H50:I50"/>
     <mergeCell ref="J50:K50"/>
-    <mergeCell ref="A54:K54"/>
+    <mergeCell ref="B53:K55"/>
     <mergeCell ref="C56:D56"/>
     <mergeCell ref="E56:F56"/>
     <mergeCell ref="G56:H56"/>
@@ -13310,16 +12847,10 @@
     <mergeCell ref="A89:L89"/>
     <mergeCell ref="B94:D94"/>
     <mergeCell ref="E94:G94"/>
-    <mergeCell ref="B98:C98"/>
     <mergeCell ref="D98:E98"/>
     <mergeCell ref="F98:G98"/>
-    <mergeCell ref="H98:I98"/>
-    <mergeCell ref="J98:K98"/>
-    <mergeCell ref="B99:C99"/>
     <mergeCell ref="D99:E99"/>
     <mergeCell ref="F99:G99"/>
-    <mergeCell ref="H99:I99"/>
-    <mergeCell ref="J99:K99"/>
     <mergeCell ref="H101:I101"/>
     <mergeCell ref="J101:K101"/>
     <mergeCell ref="A105:L105"/>
@@ -13328,61 +12859,35 @@
     <mergeCell ref="A114:L114"/>
     <mergeCell ref="H121:I121"/>
     <mergeCell ref="J121:K121"/>
-    <mergeCell ref="A125:L125"/>
-    <mergeCell ref="D130:E130"/>
-    <mergeCell ref="J130:K130"/>
-    <mergeCell ref="D131:E131"/>
-    <mergeCell ref="J131:K131"/>
-    <mergeCell ref="H133:I133"/>
-    <mergeCell ref="J133:K133"/>
-    <mergeCell ref="B137:K137"/>
-    <mergeCell ref="D142:E142"/>
-    <mergeCell ref="J142:K142"/>
-    <mergeCell ref="D143:E143"/>
-    <mergeCell ref="J143:K143"/>
-    <mergeCell ref="H145:I145"/>
-    <mergeCell ref="J145:K145"/>
-    <mergeCell ref="B149:K149"/>
-    <mergeCell ref="D150:K150"/>
-    <mergeCell ref="D154:E154"/>
-    <mergeCell ref="J154:K154"/>
+    <mergeCell ref="A125:K125"/>
+    <mergeCell ref="I131:I132"/>
+    <mergeCell ref="J131:J132"/>
+    <mergeCell ref="K131:K132"/>
+    <mergeCell ref="H134:I134"/>
+    <mergeCell ref="J134:K134"/>
+    <mergeCell ref="A138:K138"/>
+    <mergeCell ref="I144:I145"/>
+    <mergeCell ref="J144:J145"/>
+    <mergeCell ref="K144:K145"/>
+    <mergeCell ref="H147:I147"/>
+    <mergeCell ref="J147:K147"/>
+    <mergeCell ref="D150:E150"/>
+    <mergeCell ref="F150:K150"/>
+    <mergeCell ref="D151:K151"/>
+    <mergeCell ref="D152:K152"/>
+    <mergeCell ref="D153:K153"/>
+    <mergeCell ref="C154:L154"/>
     <mergeCell ref="D155:E155"/>
+    <mergeCell ref="F155:G155"/>
     <mergeCell ref="J155:K155"/>
-    <mergeCell ref="H157:I157"/>
-    <mergeCell ref="J157:K157"/>
-    <mergeCell ref="B161:K161"/>
-    <mergeCell ref="D162:K162"/>
-    <mergeCell ref="D166:E166"/>
-    <mergeCell ref="J166:K166"/>
-    <mergeCell ref="D167:E167"/>
-    <mergeCell ref="J167:K167"/>
-    <mergeCell ref="H169:I169"/>
-    <mergeCell ref="J169:K169"/>
-    <mergeCell ref="B173:K173"/>
-    <mergeCell ref="D174:K174"/>
-    <mergeCell ref="D178:E178"/>
-    <mergeCell ref="J178:K178"/>
-    <mergeCell ref="D179:E179"/>
-    <mergeCell ref="J179:K179"/>
-    <mergeCell ref="H181:I181"/>
-    <mergeCell ref="J181:K181"/>
+    <mergeCell ref="D156:E156"/>
+    <mergeCell ref="F156:G156"/>
+    <mergeCell ref="J156:K156"/>
     <mergeCell ref="C184:L184"/>
-    <mergeCell ref="D185:E185"/>
-    <mergeCell ref="F185:K185"/>
-    <mergeCell ref="D186:K186"/>
-    <mergeCell ref="D187:K187"/>
-    <mergeCell ref="D188:K188"/>
-    <mergeCell ref="C189:L189"/>
-    <mergeCell ref="D190:E190"/>
-    <mergeCell ref="F190:G190"/>
-    <mergeCell ref="J190:K190"/>
-    <mergeCell ref="D191:E191"/>
-    <mergeCell ref="F191:G191"/>
-    <mergeCell ref="J191:K191"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7875" right="0.590277777777778" top="0.39375" bottom="0.39375" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="2" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7875" right="0.590277777777778" top="0.39375" bottom="0.39375" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="2" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
